--- a/data/ibm/sentiment/ibm_averages.xlsx
+++ b/data/ibm/sentiment/ibm_averages.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="ibm_averages" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -376,7 +376,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -542,11 +542,15 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="33" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -905,41 +909,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" activeCellId="7" sqref="A102:XFD102 A88:XFD88 A75:XFD75 A62:XFD62 A49:XFD49 A36:XFD36 A23:XFD23 A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.453125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="3" t="s">
@@ -948,288 +953,340 @@
       <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1">
+      <c r="L1" s="2">
         <f>1.18027</f>
         <v>1.1802699999999999</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
+      <c r="A2" s="4">
         <v>42053</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>1.8680743997476601</v>
       </c>
-      <c r="F2">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2">
         <f t="shared" ref="F2:I33" si="0">B2-$L$1</f>
         <v>0.68780439974766017</v>
       </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
+      <c r="A3" s="4">
         <v>42060</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>0.36694399250916498</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <f>AVERAGE(B2:B3)</f>
         <v>1.1175091961284125</v>
       </c>
-      <c r="F3">
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2">
         <f t="shared" si="0"/>
         <v>-0.81332600749083495</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="2">
         <f t="shared" si="0"/>
         <v>-6.2760803871587445E-2</v>
       </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
+      <c r="A4" s="4">
         <v>42067</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>1.45705621595082</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <f t="shared" ref="C4:C67" si="1">AVERAGE(B3:B4)</f>
         <v>0.91200010422999256</v>
       </c>
-      <c r="F4">
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2">
         <f t="shared" si="0"/>
         <v>0.27678621595082009</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="2">
         <f t="shared" si="0"/>
         <v>-0.26826989577000737</v>
       </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
+      <c r="A5" s="4">
         <v>42074</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>0.85274990193923905</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <f t="shared" si="1"/>
         <v>1.1549030589450295</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <f t="shared" ref="D5:D68" si="2">AVERAGE(B2:B5)</f>
         <v>1.136206127536721</v>
       </c>
-      <c r="F5">
+      <c r="E5" s="2"/>
+      <c r="F5" s="2">
         <f t="shared" si="0"/>
         <v>-0.32752009806076088</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="2">
         <f t="shared" si="0"/>
         <v>-2.5366941054970393E-2</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="2">
         <f t="shared" si="0"/>
         <v>-4.4063872463278919E-2</v>
       </c>
+      <c r="I5" s="2"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
+      <c r="A6" s="4">
         <v>42081</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>0.81743117915151497</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <f t="shared" si="1"/>
         <v>0.83509054054537701</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <f t="shared" si="2"/>
         <v>0.87354532238768479</v>
       </c>
-      <c r="F6">
+      <c r="E6" s="2"/>
+      <c r="F6" s="2">
         <f t="shared" si="0"/>
         <v>-0.36283882084848496</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="2">
         <f t="shared" si="0"/>
         <v>-0.34517945945462292</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="2">
         <f t="shared" si="0"/>
         <v>-0.30672467761231514</v>
       </c>
+      <c r="I6" s="2"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
+      <c r="A7" s="4">
         <v>42088</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <v>1.0307510800472801</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <f t="shared" si="1"/>
         <v>0.92409112959939754</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <f t="shared" si="2"/>
         <v>1.0394970942722135</v>
       </c>
-      <c r="F7">
+      <c r="E7" s="2"/>
+      <c r="F7" s="2">
         <f t="shared" si="0"/>
         <v>-0.14951891995271982</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="2">
         <f t="shared" si="0"/>
         <v>-0.25617887040060239</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="2">
         <f t="shared" si="0"/>
         <v>-0.14077290572778645</v>
       </c>
+      <c r="I7" s="2"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
+      <c r="A8" s="4">
         <v>42095</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <v>0.491104176732794</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
         <f t="shared" si="1"/>
         <v>0.76092762839003703</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <f t="shared" si="2"/>
         <v>0.79800908446770713</v>
       </c>
-      <c r="F8">
+      <c r="E8" s="2"/>
+      <c r="F8" s="2">
         <f t="shared" si="0"/>
         <v>-0.68916582326720599</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="2">
         <f t="shared" si="0"/>
         <v>-0.41934237160996291</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="2">
         <f t="shared" si="0"/>
         <v>-0.3822609155322928</v>
       </c>
+      <c r="I8" s="2"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
+      <c r="A9" s="4">
         <v>42102</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="2">
         <v>2.6173744373638299</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="2">
         <f t="shared" si="1"/>
         <v>1.554239307048312</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="2">
         <f t="shared" si="2"/>
         <v>1.2391652183238548</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="2">
         <f t="shared" ref="E9:E72" si="3">AVERAGE(B2:B9)</f>
         <v>1.1876856729302878</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="2">
         <f t="shared" si="0"/>
         <v>1.43710443736383</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="2">
         <f t="shared" si="0"/>
         <v>0.37396930704831211</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="2">
         <f t="shared" si="0"/>
         <v>5.8895218323854914E-2</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="2">
         <f t="shared" si="0"/>
         <v>7.4156729302878865E-3</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
+      <c r="J9" s="3"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="5">
         <v>42109</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="6">
         <v>0.22013611291829999</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="6">
         <f t="shared" si="1"/>
         <v>1.418755275141065</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="6">
         <f t="shared" si="2"/>
         <v>1.0898414517655508</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="6">
         <f t="shared" si="3"/>
         <v>0.98169338707661791</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="6">
         <f t="shared" si="0"/>
         <v>-0.9601338870817</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="6">
         <f t="shared" si="0"/>
         <v>0.2384852751410651</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="6">
         <f t="shared" si="0"/>
         <v>-9.0428548234449124E-2</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="6">
         <f t="shared" si="0"/>
         <v>-0.19857661292338202</v>
       </c>
+      <c r="J10" s="7">
+        <v>-1.14E-2</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
+      <c r="A11" s="4">
         <v>42116</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="2">
         <v>1.12483475904811</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="2">
         <f t="shared" si="1"/>
         <v>0.67248543598320498</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="2">
         <f t="shared" si="2"/>
         <v>1.1133623715157586</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="2">
         <f t="shared" si="3"/>
         <v>1.076429732893986</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="2">
         <f t="shared" si="0"/>
         <v>-5.5435240951889897E-2</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="2">
         <f t="shared" si="0"/>
         <v>-0.50778456401679495</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="2">
         <f t="shared" si="0"/>
         <v>-6.6907628484241366E-2</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="2">
         <f t="shared" si="0"/>
         <v>-0.10384026710601391</v>
       </c>
+      <c r="J11" s="3"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
+      <c r="A12" s="4">
         <v>42123</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="2">
         <v>0.23939039554482699</v>
       </c>
       <c r="C12" s="2">
@@ -1260,408 +1317,444 @@
         <f t="shared" si="0"/>
         <v>-0.25604849465676294</v>
       </c>
+      <c r="J12" s="3"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
+      <c r="A13" s="4">
         <v>42130</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="2">
         <v>1.2230616067229201</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="2">
         <f t="shared" si="1"/>
         <v>0.73122600113387359</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="2">
         <f t="shared" si="2"/>
         <v>0.70185571855853923</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="2">
         <f t="shared" si="3"/>
         <v>0.97051046844119715</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="2">
         <f t="shared" si="0"/>
         <v>4.279160672292015E-2</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="2">
         <f t="shared" si="0"/>
         <v>-0.44904399886612634</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="2">
         <f t="shared" si="0"/>
         <v>-0.4784142814414607</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="2">
         <f t="shared" si="0"/>
         <v>-0.20975953155880278</v>
       </c>
+      <c r="J13" s="3"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
+      <c r="A14" s="4">
         <v>42137</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="2">
         <v>0.95656208354330696</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="2">
         <f t="shared" si="1"/>
         <v>1.0898118451331136</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="2">
         <f t="shared" si="2"/>
         <v>0.88596221121479102</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="2">
         <f t="shared" si="3"/>
         <v>0.98790183149017108</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="2">
         <f t="shared" si="0"/>
         <v>-0.22370791645669297</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="2">
         <f t="shared" si="0"/>
         <v>-9.0458154866886353E-2</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="2">
         <f t="shared" si="0"/>
         <v>-0.29430778878520891</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="2">
         <f t="shared" si="0"/>
         <v>-0.19236816850982885</v>
       </c>
+      <c r="J14" s="3"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A15" s="1">
+      <c r="A15" s="4">
         <v>42144</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="2">
         <v>1.1729521759761901</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="2">
         <f t="shared" si="1"/>
         <v>1.0647571297597485</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="2">
         <f t="shared" si="2"/>
         <v>0.89799156544681102</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="2">
         <f t="shared" si="3"/>
         <v>1.005676968481285</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="2">
         <f t="shared" si="0"/>
         <v>-7.3178240238098713E-3</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="2">
         <f t="shared" si="0"/>
         <v>-0.11551287024025148</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="2">
         <f t="shared" si="0"/>
         <v>-0.28227843455318891</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="2">
         <f t="shared" si="0"/>
         <v>-0.17459303151871497</v>
       </c>
+      <c r="J15" s="3"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A16" s="1">
+      <c r="A16" s="4">
         <v>42151</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="2">
         <v>0.93652002717748895</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="2">
         <f t="shared" si="1"/>
         <v>1.0547361015768395</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="2">
         <f t="shared" si="2"/>
         <v>1.0722739733549767</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="2">
         <f t="shared" si="3"/>
         <v>1.0613539497868716</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="2">
         <f t="shared" si="0"/>
         <v>-0.24374997282251099</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="2">
         <f t="shared" si="0"/>
         <v>-0.12553389842316043</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="2">
         <f t="shared" si="0"/>
         <v>-0.10799602664502328</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="2">
         <f t="shared" si="0"/>
         <v>-0.11891605021312834</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="1">
+      <c r="J16" s="3"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A17" s="4">
         <v>42158</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="2">
         <v>1.8472017312712701</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="2">
         <f t="shared" si="1"/>
         <v>1.3918608792243794</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="2">
         <f t="shared" si="2"/>
         <v>1.2283090044920639</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="2">
         <f t="shared" si="3"/>
         <v>0.96508236152530158</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="2">
         <f t="shared" si="0"/>
         <v>0.66693173127127015</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="2">
         <f t="shared" si="0"/>
         <v>0.21159087922437947</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="2">
         <f t="shared" si="0"/>
         <v>4.8039004492063997E-2</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="2">
         <f t="shared" si="0"/>
         <v>-0.21518763847469835</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" s="1">
+      <c r="J17" s="3"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A18" s="4">
         <v>42165</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="2">
         <v>1.8163365775</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="2">
         <f t="shared" si="1"/>
         <v>1.8317691543856349</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="2">
         <f t="shared" si="2"/>
         <v>1.4432526279812374</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="2">
         <f t="shared" si="3"/>
         <v>1.1646074195980143</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="2">
         <f t="shared" si="0"/>
         <v>0.63606657750000006</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="2">
         <f t="shared" si="0"/>
         <v>0.65149915438563499</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="2">
         <f t="shared" si="0"/>
         <v>0.2629826279812375</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="2">
         <f t="shared" si="0"/>
         <v>-1.5662580401985648E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" s="1">
+      <c r="J18" s="3"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A19" s="4">
         <v>42172</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="2">
         <v>0.64882574227669898</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="2">
         <f t="shared" si="1"/>
         <v>1.2325811598883494</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="2">
         <f t="shared" si="2"/>
         <v>1.3122210195563646</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="2">
         <f t="shared" si="3"/>
         <v>1.1051062925015878</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="2">
         <f t="shared" si="0"/>
         <v>-0.53144425772330095</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="2">
         <f t="shared" si="0"/>
         <v>5.2311159888349446E-2</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="2">
         <f t="shared" si="0"/>
         <v>0.13195101955636468</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="2">
         <f t="shared" si="0"/>
         <v>-7.5163707498412169E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" s="1">
+      <c r="J19" s="3"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A20" s="4">
         <v>42179</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="2">
         <v>1.8918746720744599</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="2">
         <f t="shared" si="1"/>
         <v>1.2703502071755794</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="2">
         <f t="shared" si="2"/>
         <v>1.5510596807806072</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="2">
         <f t="shared" si="3"/>
         <v>1.311666827067792</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="2">
         <f t="shared" si="0"/>
         <v>0.71160467207445999</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="2">
         <f t="shared" si="0"/>
         <v>9.0080207175579519E-2</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="2">
         <f t="shared" si="0"/>
         <v>0.37078968078060726</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="2">
         <f t="shared" si="0"/>
         <v>0.1313968270677921</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21" s="1">
+      <c r="J20" s="3"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A21" s="4">
         <v>42186</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="2">
         <v>1.7724895373432801</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="2">
         <f t="shared" si="1"/>
         <v>1.83218210470887</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="2">
         <f t="shared" si="2"/>
         <v>1.5323816322986097</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="2">
         <f t="shared" si="3"/>
         <v>1.3803453183953367</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="2">
         <f t="shared" si="0"/>
         <v>0.59221953734328014</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="2">
         <f t="shared" si="0"/>
         <v>0.65191210470887007</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="2">
         <f t="shared" si="0"/>
         <v>0.35211163229860976</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="2">
         <f t="shared" si="0"/>
         <v>0.20007531839533677</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A22" s="1">
+      <c r="J21" s="3"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A22" s="4">
         <v>42193</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="2">
         <v>0.95045936427148803</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="2">
         <f t="shared" si="1"/>
         <v>1.3614744508073842</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="2">
         <f t="shared" si="2"/>
         <v>1.3159123289914818</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="2">
         <f t="shared" si="3"/>
         <v>1.3795824784863595</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="2">
         <f t="shared" si="0"/>
         <v>-0.2298106357285119</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="2">
         <f t="shared" si="0"/>
         <v>0.18120445080738423</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="2">
         <f t="shared" si="0"/>
         <v>0.13564232899148188</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="2">
         <f t="shared" si="0"/>
         <v>0.19931247848635958</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A23" s="1">
+      <c r="J22" s="3"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+    </row>
+    <row r="23" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="5">
         <v>42200</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="6">
         <v>0.235338149298981</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="6">
         <f t="shared" si="1"/>
         <v>0.59289875678523452</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="6">
         <f t="shared" si="2"/>
         <v>1.2125404307470522</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="6">
         <f t="shared" si="3"/>
         <v>1.2623807251517083</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="6">
         <f t="shared" si="0"/>
         <v>-0.94493185070101893</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="6">
         <f t="shared" si="0"/>
         <v>-0.58737124321476541</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="6">
         <f t="shared" si="0"/>
         <v>3.227043074705227E-2</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="6">
         <f t="shared" si="0"/>
         <v>8.2110725151708364E-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A24" s="1">
+      <c r="J23" s="7">
+        <v>-5.8599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A24" s="4">
         <v>42207</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="2">
         <v>0.77587436000363497</v>
       </c>
       <c r="C24" s="2">
@@ -1692,480 +1785,522 @@
         <f t="shared" si="0"/>
         <v>6.2030016754976769E-2</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A25" s="1">
+      <c r="J24" s="3"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A25" s="4">
         <v>42214</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="2">
         <v>1.43038926670024</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="2">
         <f t="shared" si="1"/>
         <v>1.1031318133519374</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="2">
         <f t="shared" si="2"/>
         <v>0.84801528506858603</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="2">
         <f t="shared" si="3"/>
         <v>1.1901984586835979</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="2">
         <f t="shared" si="0"/>
         <v>0.25011926670024009</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="2">
         <f t="shared" si="0"/>
         <v>-7.713818664806249E-2</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="2">
         <f t="shared" si="0"/>
         <v>-0.3322547149314139</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="2">
         <f t="shared" si="0"/>
         <v>9.9284586835979294E-3</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A26" s="1">
+      <c r="J25" s="3"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A26" s="4">
         <v>42221</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="2">
         <v>2.1027477530048602</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="2">
         <f t="shared" si="1"/>
         <v>1.7665685098525501</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="2">
         <f t="shared" si="2"/>
         <v>1.1360873822519291</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="2">
         <f t="shared" si="3"/>
         <v>1.2259998556217053</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="2">
         <f t="shared" si="0"/>
         <v>0.92247775300486023</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="2">
         <f t="shared" si="0"/>
         <v>0.58629850985255016</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="2">
         <f t="shared" si="0"/>
         <v>-4.4182617748070863E-2</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="2">
         <f t="shared" si="0"/>
         <v>4.5729855621705395E-2</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A27" s="1">
+      <c r="J26" s="3"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A27" s="4">
         <v>42228</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="2">
         <v>1.56704413075733</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="2">
         <f t="shared" si="1"/>
         <v>1.8348959418810951</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="2">
         <f t="shared" si="2"/>
         <v>1.4690138776165163</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="2">
         <f t="shared" si="3"/>
         <v>1.3407771541817841</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="2">
         <f t="shared" si="0"/>
         <v>0.38677413075733003</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="2">
         <f t="shared" si="0"/>
         <v>0.65462594188109513</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="2">
         <f t="shared" si="0"/>
         <v>0.28874387761651632</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="2">
         <f t="shared" si="0"/>
         <v>0.16050715418178418</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A28" s="1">
+      <c r="J27" s="3"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A28" s="4">
         <v>42235</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="2">
         <v>1.2194391886915401</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="2">
         <f t="shared" si="1"/>
         <v>1.393241659724435</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="2">
         <f t="shared" si="2"/>
         <v>1.5799050847884926</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="2">
         <f t="shared" si="3"/>
         <v>1.2567227187589194</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="2">
         <f t="shared" si="0"/>
         <v>3.916918869154018E-2</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="2">
         <f t="shared" si="0"/>
         <v>0.2129716597244351</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="2">
         <f t="shared" si="0"/>
         <v>0.39963508478849263</v>
       </c>
-      <c r="I28">
+      <c r="I28" s="2">
         <f t="shared" si="0"/>
         <v>7.6452718758919458E-2</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A29" s="1">
+      <c r="J28" s="3"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A29" s="4">
         <v>42242</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="2">
         <v>2.1510204183814601</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="2">
         <f t="shared" si="1"/>
         <v>1.6852298035365001</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="2">
         <f t="shared" si="2"/>
         <v>1.7600628727087977</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="2">
         <f t="shared" si="3"/>
         <v>1.3040390788886917</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="2">
         <f t="shared" si="0"/>
         <v>0.97075041838146015</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="2">
         <f t="shared" si="0"/>
         <v>0.50495980353650016</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="2">
         <f t="shared" si="0"/>
         <v>0.57979287270879776</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="2">
         <f t="shared" si="0"/>
         <v>0.12376907888869182</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A30" s="1">
+      <c r="J29" s="3"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A30" s="4">
         <v>42249</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="2">
         <v>1.6091899426835801</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="2">
         <f t="shared" si="1"/>
         <v>1.88010518053252</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="2">
         <f t="shared" si="2"/>
         <v>1.6366734201284774</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="2">
         <f t="shared" si="3"/>
         <v>1.3863804011902032</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="2">
         <f t="shared" si="0"/>
         <v>0.42891994268358014</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="2">
         <f t="shared" si="0"/>
         <v>0.69983518053252003</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="2">
         <f t="shared" si="0"/>
         <v>0.45640342012847746</v>
       </c>
-      <c r="I30">
+      <c r="I30" s="2">
         <f t="shared" si="0"/>
         <v>0.2061104011902033</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A31" s="1">
+      <c r="J30" s="3"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A31" s="4">
         <v>42256</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="2">
         <v>2.4298173125953699</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="2">
         <f t="shared" si="1"/>
         <v>2.0195036276394749</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="2">
         <f t="shared" si="2"/>
         <v>1.8523667155879875</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="2">
         <f t="shared" si="3"/>
         <v>1.6606902966022519</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="2">
         <f t="shared" si="0"/>
         <v>1.24954731259537</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="2">
         <f t="shared" si="0"/>
         <v>0.83923362763947496</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="2">
         <f t="shared" si="0"/>
         <v>0.67209671558798756</v>
       </c>
-      <c r="I31">
+      <c r="I31" s="2">
         <f t="shared" si="0"/>
         <v>0.48042029660225194</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A32" s="1">
+      <c r="J31" s="3"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A32" s="4">
         <v>42263</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="2">
         <v>2.0207883379518399</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="2">
         <f t="shared" si="1"/>
         <v>2.2253028252736051</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="2">
         <f t="shared" si="2"/>
         <v>2.0527040029030625</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="2">
         <f t="shared" si="3"/>
         <v>1.8163045438457777</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="2">
         <f t="shared" si="0"/>
         <v>0.84051833795183994</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="2">
         <f t="shared" si="0"/>
         <v>1.0450328252736052</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="2">
         <f t="shared" si="0"/>
         <v>0.87243400290306261</v>
       </c>
-      <c r="I32">
+      <c r="I32" s="2">
         <f t="shared" si="0"/>
         <v>0.63603454384577773</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A33" s="1">
+      <c r="J32" s="3"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A33" s="4">
         <v>42270</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="2">
         <v>2.23137854159312</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="2">
         <f t="shared" si="1"/>
         <v>2.1260834397724802</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="2">
         <f t="shared" si="2"/>
         <v>2.0727935337059775</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="2">
         <f t="shared" si="3"/>
         <v>1.9164282032073876</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="2">
         <f t="shared" si="0"/>
         <v>1.0511085415931201</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="2">
         <f t="shared" si="0"/>
         <v>0.94581343977248022</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="2">
         <f t="shared" si="0"/>
         <v>0.89252353370597759</v>
       </c>
-      <c r="I33">
+      <c r="I33" s="2">
         <f t="shared" si="0"/>
         <v>0.73615820320738767</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A34" s="1">
+      <c r="J33" s="3"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A34" s="4">
         <v>42277</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="2">
         <v>1.7006803124654399</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="2">
         <f t="shared" si="1"/>
         <v>1.96602942702928</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="2">
         <f t="shared" si="2"/>
         <v>2.0956661261514427</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="2">
         <f t="shared" si="3"/>
         <v>1.86616977313996</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="2">
         <f t="shared" ref="F34:I65" si="4">B34-$L$1</f>
         <v>0.52041031246544001</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="2">
         <f t="shared" si="4"/>
         <v>0.78575942702928003</v>
       </c>
-      <c r="H34">
+      <c r="H34" s="2">
         <f t="shared" si="4"/>
         <v>0.91539612615144272</v>
       </c>
-      <c r="I34">
+      <c r="I34" s="2">
         <f t="shared" si="4"/>
         <v>0.68589977313996009</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A35" s="1">
+      <c r="J34" s="3"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A35" s="4">
         <v>42284</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="2">
         <v>2.02341783271789</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="2">
         <f t="shared" si="1"/>
         <v>1.862049072591665</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="2">
         <f t="shared" si="2"/>
         <v>1.9940662561820726</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="2">
         <f t="shared" si="3"/>
         <v>1.92321648588503</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="2">
         <f t="shared" si="4"/>
         <v>0.84314783271789007</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="2">
         <f t="shared" si="4"/>
         <v>0.68177907259166504</v>
       </c>
-      <c r="H35">
+      <c r="H35" s="2">
         <f t="shared" si="4"/>
         <v>0.81379625618207263</v>
       </c>
-      <c r="I35">
+      <c r="I35" s="2">
         <f t="shared" si="4"/>
         <v>0.74294648588503009</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A36" s="1">
+      <c r="J35" s="3"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+    </row>
+    <row r="36" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="5">
         <v>42291</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="6">
         <v>0.57760653308413801</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="6">
         <f t="shared" si="1"/>
         <v>1.300512182901014</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="6">
         <f t="shared" si="2"/>
         <v>1.633270804965147</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="6">
         <f t="shared" si="3"/>
         <v>1.8429874039341048</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="6">
         <f t="shared" si="4"/>
         <v>-0.60266346691586192</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="6">
         <f t="shared" si="4"/>
         <v>0.12024218290101407</v>
       </c>
-      <c r="H36">
+      <c r="H36" s="6">
         <f t="shared" si="4"/>
         <v>0.45300080496514705</v>
       </c>
-      <c r="I36">
+      <c r="I36" s="6">
         <f t="shared" si="4"/>
         <v>0.66271740393410483</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A37" s="1">
+      <c r="J36" s="7">
+        <v>-5.7500000000000002E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A37" s="4">
         <v>42298</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="2">
         <v>0.878932735188929</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="2">
         <f t="shared" si="1"/>
         <v>0.72826963413653356</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="2">
         <f t="shared" si="2"/>
         <v>1.2951593533640993</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="2">
         <f t="shared" si="3"/>
         <v>1.6839764435350384</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="2">
         <f t="shared" si="4"/>
         <v>-0.30133726481107093</v>
       </c>
-      <c r="G37">
+      <c r="G37" s="2">
         <f t="shared" si="4"/>
         <v>-0.45200036586346637</v>
       </c>
-      <c r="H37">
+      <c r="H37" s="2">
         <f t="shared" si="4"/>
         <v>0.11488935336409933</v>
       </c>
-      <c r="I37">
+      <c r="I37" s="2">
         <f t="shared" si="4"/>
         <v>0.50370644353503846</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A38" s="1">
+      <c r="J37" s="3"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A38" s="4">
         <v>42305</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="2">
         <v>1.1245815076011301</v>
       </c>
       <c r="C38" s="2">
@@ -2196,444 +2331,483 @@
         <f t="shared" si="4"/>
         <v>0.44313038914973224</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A39" s="1">
+      <c r="J38" s="3"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A39" s="4">
         <v>42312</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="2">
         <v>1.75104827805923</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="2">
         <f t="shared" si="1"/>
         <v>1.4378148928301799</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="2">
         <f t="shared" si="2"/>
         <v>1.0830422634833567</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="2">
         <f t="shared" si="3"/>
         <v>1.5385542598327147</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="2">
         <f t="shared" si="4"/>
         <v>0.57077827805923009</v>
       </c>
-      <c r="G39">
+      <c r="G39" s="2">
         <f t="shared" si="4"/>
         <v>0.25754489283018001</v>
       </c>
-      <c r="H39">
+      <c r="H39" s="2">
         <f t="shared" si="4"/>
         <v>-9.7227736516643182E-2</v>
       </c>
-      <c r="I39">
+      <c r="I39" s="2">
         <f t="shared" si="4"/>
         <v>0.35828425983271472</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A40" s="1">
+      <c r="J39" s="3"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A40" s="4">
         <v>42319</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="2">
         <v>2.08502481403846</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="2">
         <f t="shared" si="1"/>
         <v>1.9180365460488451</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="2">
         <f t="shared" si="2"/>
         <v>1.4598968337219373</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="2">
         <f t="shared" si="3"/>
         <v>1.5465838193435422</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="2">
         <f t="shared" si="4"/>
         <v>0.90475481403846003</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="2">
         <f t="shared" si="4"/>
         <v>0.73776654604884517</v>
       </c>
-      <c r="H40">
+      <c r="H40" s="2">
         <f t="shared" si="4"/>
         <v>0.27962683372193742</v>
       </c>
-      <c r="I40">
+      <c r="I40" s="2">
         <f t="shared" si="4"/>
         <v>0.36631381934354224</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A41" s="1">
+      <c r="J40" s="3"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A41" s="4">
         <v>42326</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="2">
         <v>1.5059201709452501</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="2">
         <f t="shared" si="1"/>
         <v>1.795472492491855</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="2">
         <f t="shared" si="2"/>
         <v>1.6166436926610177</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="2">
         <f t="shared" si="3"/>
         <v>1.4559015230125585</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="2">
         <f t="shared" si="4"/>
         <v>0.32565017094525017</v>
       </c>
-      <c r="G41">
+      <c r="G41" s="2">
         <f t="shared" si="4"/>
         <v>0.6152024924918551</v>
       </c>
-      <c r="H41">
+      <c r="H41" s="2">
         <f t="shared" si="4"/>
         <v>0.43637369266101778</v>
       </c>
-      <c r="I41">
+      <c r="I41" s="2">
         <f t="shared" si="4"/>
         <v>0.27563152301255855</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A42" s="1">
+      <c r="J41" s="3"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A42" s="4">
         <v>42333</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="2">
         <v>1.5353884239456499</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="2">
         <f t="shared" si="1"/>
         <v>1.52065429744545</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="2">
         <f t="shared" si="2"/>
         <v>1.7193454217471476</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="2">
         <f t="shared" si="3"/>
         <v>1.4352400369475846</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="2">
         <f t="shared" si="4"/>
         <v>0.35511842394564996</v>
       </c>
-      <c r="G42">
+      <c r="G42" s="2">
         <f t="shared" si="4"/>
         <v>0.34038429744545007</v>
       </c>
-      <c r="H42">
+      <c r="H42" s="2">
         <f t="shared" si="4"/>
         <v>0.53907542174714762</v>
       </c>
-      <c r="I42">
+      <c r="I42" s="2">
         <f t="shared" si="4"/>
         <v>0.25497003694758469</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A43" s="1">
+      <c r="J42" s="3"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A43" s="4">
         <v>42340</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="2">
         <v>0.88816024786149494</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="2">
         <f t="shared" si="1"/>
         <v>1.2117743359035724</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="2">
         <f t="shared" si="2"/>
         <v>1.5036234141977138</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="2">
         <f t="shared" si="3"/>
         <v>1.2933328388405352</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="2">
         <f t="shared" si="4"/>
         <v>-0.29210975213850499</v>
       </c>
-      <c r="G43">
+      <c r="G43" s="2">
         <f t="shared" si="4"/>
         <v>3.1504335903572489E-2</v>
       </c>
-      <c r="H43">
+      <c r="H43" s="2">
         <f t="shared" si="4"/>
         <v>0.32335341419771391</v>
       </c>
-      <c r="I43">
+      <c r="I43" s="2">
         <f t="shared" si="4"/>
         <v>0.11306283884053525</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A44" s="1">
+      <c r="J43" s="3"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A44" s="4">
         <v>42347</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="2">
         <v>1.1564983116562499</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="2">
         <f t="shared" si="1"/>
         <v>1.0223292797588726</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="2">
         <f t="shared" si="2"/>
         <v>1.2714917886021613</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="2">
         <f t="shared" si="3"/>
         <v>1.3656943111620494</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="2">
         <f t="shared" si="4"/>
         <v>-2.3771688343749986E-2</v>
       </c>
-      <c r="G44">
+      <c r="G44" s="2">
         <f t="shared" si="4"/>
         <v>-0.15794072024112737</v>
       </c>
-      <c r="H44">
+      <c r="H44" s="2">
         <f t="shared" si="4"/>
         <v>9.1221788602161347E-2</v>
       </c>
-      <c r="I44">
+      <c r="I44" s="2">
         <f t="shared" si="4"/>
         <v>0.18542431116204949</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A45" s="1">
+      <c r="J44" s="3"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A45" s="4">
         <v>42354</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="2">
         <v>2.0756864646109601</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="2">
         <f t="shared" si="1"/>
         <v>1.6160923881336049</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="2">
         <f t="shared" si="2"/>
         <v>1.4139333620185885</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="2">
         <f t="shared" si="3"/>
         <v>1.5152885273398033</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="2">
         <f t="shared" si="4"/>
         <v>0.89541646461096014</v>
       </c>
-      <c r="G45">
+      <c r="G45" s="2">
         <f t="shared" si="4"/>
         <v>0.43582238813360497</v>
       </c>
-      <c r="H45">
+      <c r="H45" s="2">
         <f t="shared" si="4"/>
         <v>0.23366336201858862</v>
       </c>
-      <c r="I45">
+      <c r="I45" s="2">
         <f t="shared" si="4"/>
         <v>0.33501852733980342</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A46" s="1">
+      <c r="J45" s="3"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A46" s="4">
         <v>42361</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="2">
         <v>0.78259063365432002</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="2">
         <f t="shared" si="1"/>
         <v>1.42913854913264</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="2">
         <f t="shared" si="2"/>
         <v>1.2257339144457562</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="2">
         <f t="shared" si="3"/>
         <v>1.4725396680964518</v>
       </c>
-      <c r="F46">
+      <c r="F46" s="2">
         <f t="shared" si="4"/>
         <v>-0.39767936634567991</v>
       </c>
-      <c r="G46">
+      <c r="G46" s="2">
         <f t="shared" si="4"/>
         <v>0.24886854913264012</v>
       </c>
-      <c r="H46">
+      <c r="H46" s="2">
         <f t="shared" si="4"/>
         <v>4.5463914445756259E-2</v>
       </c>
-      <c r="I46">
+      <c r="I46" s="2">
         <f t="shared" si="4"/>
         <v>0.29226966809645183</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A47" s="1">
+      <c r="J46" s="3"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A47" s="4">
         <v>42368</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="2">
         <v>0.78544332028999897</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="2">
         <f t="shared" si="1"/>
         <v>0.78401697697215944</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="2">
         <f t="shared" si="2"/>
         <v>1.2000546825528822</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="2">
         <f t="shared" si="3"/>
         <v>1.351839048375298</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="2">
         <f t="shared" si="4"/>
         <v>-0.39482667971000096</v>
       </c>
-      <c r="G47">
+      <c r="G47" s="2">
         <f t="shared" si="4"/>
         <v>-0.39625302302784049</v>
       </c>
-      <c r="H47">
+      <c r="H47" s="2">
         <f t="shared" si="4"/>
         <v>1.9784682552882238E-2</v>
       </c>
-      <c r="I47">
+      <c r="I47" s="2">
         <f t="shared" si="4"/>
         <v>0.17156904837529807</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A48" s="1">
+      <c r="J47" s="3"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A48" s="4">
         <v>42375</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="2">
         <v>1.4816020954129101</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="2">
         <f t="shared" si="1"/>
         <v>1.1335227078514545</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="2">
         <f t="shared" si="2"/>
         <v>1.2813306284920474</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="2">
         <f t="shared" si="3"/>
         <v>1.2764112085471042</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="2">
         <f t="shared" si="4"/>
         <v>0.30133209541291017</v>
       </c>
-      <c r="G48">
+      <c r="G48" s="2">
         <f t="shared" si="4"/>
         <v>-4.674729214854545E-2</v>
       </c>
-      <c r="H48">
+      <c r="H48" s="2">
         <f t="shared" si="4"/>
         <v>0.10106062849204744</v>
       </c>
-      <c r="I48">
+      <c r="I48" s="2">
         <f t="shared" si="4"/>
         <v>9.6141208547104284E-2</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A49" s="1">
+      <c r="J48" s="3"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+    </row>
+    <row r="49" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="5">
         <v>42382</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="6">
         <v>0.94571797609502295</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="6">
         <f t="shared" si="1"/>
         <v>1.2136600357539664</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="6">
         <f t="shared" si="2"/>
         <v>0.99883850636306293</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="6">
         <f t="shared" si="3"/>
         <v>1.2063859341908258</v>
       </c>
-      <c r="F49">
+      <c r="F49" s="6">
         <f t="shared" si="4"/>
         <v>-0.23455202390497698</v>
       </c>
-      <c r="G49">
+      <c r="G49" s="6">
         <f t="shared" si="4"/>
         <v>3.3390035753966485E-2</v>
       </c>
-      <c r="H49">
+      <c r="H49" s="6">
         <f t="shared" si="4"/>
         <v>-0.181431493636937</v>
       </c>
-      <c r="I49">
+      <c r="I49" s="6">
         <f t="shared" si="4"/>
         <v>2.6115934190825918E-2</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A50" s="1">
+      <c r="J49" s="7">
+        <v>-4.8800000000000003E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A50" s="4">
         <v>42389</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="2">
         <v>0.47961676088870903</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="2">
         <f t="shared" si="1"/>
         <v>0.71266736849186596</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="2">
         <f t="shared" si="2"/>
         <v>0.92309503817166016</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="2">
         <f t="shared" si="3"/>
         <v>1.0744144763087082</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="2">
         <f t="shared" si="4"/>
         <v>-0.70065323911129096</v>
       </c>
-      <c r="G50">
+      <c r="G50" s="2">
         <f t="shared" si="4"/>
         <v>-0.46760263150813397</v>
       </c>
-      <c r="H50">
+      <c r="H50" s="2">
         <f t="shared" si="4"/>
         <v>-0.25717496182833977</v>
       </c>
-      <c r="I50">
+      <c r="I50" s="2">
         <f t="shared" si="4"/>
         <v>-0.1058555236912917</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A51" s="1">
+      <c r="J50" s="3"/>
+      <c r="K50" s="2"/>
+      <c r="L50" s="2"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A51" s="4">
         <v>42396</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="2">
         <v>2.30702827620618</v>
       </c>
       <c r="C51" s="2">
@@ -2664,444 +2838,483 @@
         <f t="shared" si="4"/>
         <v>7.150297985179388E-2</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A52" s="1">
+      <c r="J51" s="3"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A52" s="4">
         <v>42403</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="2">
         <v>1.8637926552952999</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="2">
         <f t="shared" si="1"/>
         <v>2.0854104657507397</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="2">
         <f t="shared" si="2"/>
         <v>1.3990389171213029</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="2">
         <f t="shared" si="3"/>
         <v>1.3401847728066754</v>
       </c>
-      <c r="F52">
+      <c r="F52" s="2">
         <f t="shared" si="4"/>
         <v>0.68352265529529999</v>
       </c>
-      <c r="G52">
+      <c r="G52" s="2">
         <f t="shared" si="4"/>
         <v>0.90514046575073981</v>
       </c>
-      <c r="H52">
+      <c r="H52" s="2">
         <f t="shared" si="4"/>
         <v>0.21876891712130297</v>
       </c>
-      <c r="I52">
+      <c r="I52" s="2">
         <f t="shared" si="4"/>
         <v>0.15991477280667543</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A53" s="1">
+      <c r="J52" s="3"/>
+      <c r="K52" s="2"/>
+      <c r="L52" s="2"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A53" s="4">
         <v>42410</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="2">
         <v>1.1703315512783501</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="2">
         <f t="shared" si="1"/>
         <v>1.517062103286825</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="2">
         <f t="shared" si="2"/>
         <v>1.4551923109171347</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="2">
         <f t="shared" si="3"/>
         <v>1.2270154086400991</v>
       </c>
-      <c r="F53">
+      <c r="F53" s="2">
         <f t="shared" si="4"/>
         <v>-9.9384487216498396E-3</v>
       </c>
-      <c r="G53">
+      <c r="G53" s="2">
         <f t="shared" si="4"/>
         <v>0.33679210328682507</v>
       </c>
-      <c r="H53">
+      <c r="H53" s="2">
         <f t="shared" si="4"/>
         <v>0.27492231091713482</v>
       </c>
-      <c r="I53">
+      <c r="I53" s="2">
         <f t="shared" si="4"/>
         <v>4.6745408640099129E-2</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A54" s="1">
+      <c r="J53" s="3"/>
+      <c r="K53" s="2"/>
+      <c r="L53" s="2"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A54" s="4">
         <v>42417</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="2">
         <v>2.5941219477341999</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="2">
         <f t="shared" si="1"/>
         <v>1.882226749506275</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="2">
         <f t="shared" si="2"/>
         <v>1.9838186076285074</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="2">
         <f t="shared" si="3"/>
         <v>1.4534568229000839</v>
       </c>
-      <c r="F54">
+      <c r="F54" s="2">
         <f t="shared" si="4"/>
         <v>1.4138519477342</v>
       </c>
-      <c r="G54">
+      <c r="G54" s="2">
         <f t="shared" si="4"/>
         <v>0.70195674950627507</v>
       </c>
-      <c r="H54">
+      <c r="H54" s="2">
         <f t="shared" si="4"/>
         <v>0.80354860762850744</v>
       </c>
-      <c r="I54">
+      <c r="I54" s="2">
         <f t="shared" si="4"/>
         <v>0.273186822900084</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A55" s="1">
+      <c r="J54" s="3"/>
+      <c r="K54" s="2"/>
+      <c r="L54" s="2"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A55" s="4">
         <v>42424</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="2">
         <v>1.4375638804069399</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="2">
         <f t="shared" si="1"/>
         <v>2.01584291407057</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="2">
         <f t="shared" si="2"/>
         <v>1.7664525086786975</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="2">
         <f t="shared" si="3"/>
         <v>1.5349718929147014</v>
       </c>
-      <c r="F55">
+      <c r="F55" s="2">
         <f t="shared" si="4"/>
         <v>0.25729388040694001</v>
       </c>
-      <c r="G55">
+      <c r="G55" s="2">
         <f t="shared" si="4"/>
         <v>0.83557291407057011</v>
       </c>
-      <c r="H55">
+      <c r="H55" s="2">
         <f t="shared" si="4"/>
         <v>0.58618250867869759</v>
       </c>
-      <c r="I55">
+      <c r="I55" s="2">
         <f t="shared" si="4"/>
         <v>0.35470189291470144</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A56" s="1">
+      <c r="J55" s="3"/>
+      <c r="K55" s="2"/>
+      <c r="L55" s="2"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A56" s="4">
         <v>42431</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="2">
         <v>1.16948177120707</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="2">
         <f t="shared" si="1"/>
         <v>1.3035228258070051</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="2">
         <f t="shared" si="2"/>
         <v>1.59287478765664</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="2">
         <f t="shared" si="3"/>
         <v>1.4959568523889715</v>
       </c>
-      <c r="F56">
+      <c r="F56" s="2">
         <f t="shared" si="4"/>
         <v>-1.0788228792929955E-2</v>
       </c>
-      <c r="G56">
+      <c r="G56" s="2">
         <f t="shared" si="4"/>
         <v>0.12325282580700514</v>
       </c>
-      <c r="H56">
+      <c r="H56" s="2">
         <f t="shared" si="4"/>
         <v>0.4126047876566401</v>
       </c>
-      <c r="I56">
+      <c r="I56" s="2">
         <f t="shared" si="4"/>
         <v>0.31568685238897154</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A57" s="1">
+      <c r="J56" s="3"/>
+      <c r="K56" s="2"/>
+      <c r="L56" s="2"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A57" s="4">
         <v>42438</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="2">
         <v>2.0934427829473599</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="2">
         <f t="shared" si="1"/>
         <v>1.6314622770772149</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="2">
         <f t="shared" si="2"/>
         <v>1.8236525955738925</v>
       </c>
-      <c r="E57">
+      <c r="E57" s="2">
         <f t="shared" si="3"/>
         <v>1.6394224532455133</v>
       </c>
-      <c r="F57">
+      <c r="F57" s="2">
         <f t="shared" si="4"/>
         <v>0.91317278294735993</v>
       </c>
-      <c r="G57">
+      <c r="G57" s="2">
         <f t="shared" si="4"/>
         <v>0.45119227707721499</v>
       </c>
-      <c r="H57">
+      <c r="H57" s="2">
         <f t="shared" si="4"/>
         <v>0.64338259557389255</v>
       </c>
-      <c r="I57">
+      <c r="I57" s="2">
         <f t="shared" si="4"/>
         <v>0.45915245324551335</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A58" s="1">
+      <c r="J57" s="3"/>
+      <c r="K57" s="2"/>
+      <c r="L57" s="2"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A58" s="4">
         <v>42445</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="2">
         <v>1.0306746194279801</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="2">
         <f t="shared" si="1"/>
         <v>1.5620587011876701</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="2">
         <f t="shared" si="2"/>
         <v>1.4327907634973376</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="2">
         <f t="shared" si="3"/>
         <v>1.7083046855629225</v>
       </c>
-      <c r="F58">
+      <c r="F58" s="2">
         <f t="shared" si="4"/>
         <v>-0.14959538057201982</v>
       </c>
-      <c r="G58">
+      <c r="G58" s="2">
         <f t="shared" si="4"/>
         <v>0.38178870118767017</v>
       </c>
-      <c r="H58">
+      <c r="H58" s="2">
         <f t="shared" si="4"/>
         <v>0.25252076349733765</v>
       </c>
-      <c r="I58">
+      <c r="I58" s="2">
         <f t="shared" si="4"/>
         <v>0.52803468556292255</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A59" s="1">
+      <c r="J58" s="3"/>
+      <c r="K58" s="2"/>
+      <c r="L58" s="2"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A59" s="4">
         <v>42452</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="2">
         <v>1.9339572723513501</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="2">
         <f t="shared" si="1"/>
         <v>1.4823159458896651</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="2">
         <f t="shared" si="2"/>
         <v>1.55688911148344</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="2">
         <f t="shared" si="3"/>
         <v>1.6616708100810689</v>
       </c>
-      <c r="F59">
+      <c r="F59" s="2">
         <f t="shared" si="4"/>
         <v>0.75368727235135013</v>
       </c>
-      <c r="G59">
+      <c r="G59" s="2">
         <f t="shared" si="4"/>
         <v>0.30204594588966516</v>
       </c>
-      <c r="H59">
+      <c r="H59" s="2">
         <f t="shared" si="4"/>
         <v>0.37661911148344007</v>
       </c>
-      <c r="I59">
+      <c r="I59" s="2">
         <f t="shared" si="4"/>
         <v>0.48140081008106894</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A60" s="1">
+      <c r="J59" s="3"/>
+      <c r="K59" s="2"/>
+      <c r="L59" s="2"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A60" s="4">
         <v>42459</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="2">
         <v>1.1389892870438501</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="2">
         <f t="shared" si="1"/>
         <v>1.5364732796976002</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="2">
         <f t="shared" si="2"/>
         <v>1.5492659904426351</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="2">
         <f t="shared" si="3"/>
         <v>1.5710703890496376</v>
       </c>
-      <c r="F60">
+      <c r="F60" s="2">
         <f t="shared" si="4"/>
         <v>-4.1280712956149879E-2</v>
       </c>
-      <c r="G60">
+      <c r="G60" s="2">
         <f t="shared" si="4"/>
         <v>0.35620327969760024</v>
       </c>
-      <c r="H60">
+      <c r="H60" s="2">
         <f t="shared" si="4"/>
         <v>0.3689959904426352</v>
       </c>
-      <c r="I60">
+      <c r="I60" s="2">
         <f t="shared" si="4"/>
         <v>0.39080038904963765</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A61" s="1">
+      <c r="J60" s="3"/>
+      <c r="K60" s="2"/>
+      <c r="L60" s="2"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A61" s="4">
         <v>42466</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="2">
         <v>1.42323747265258</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="2">
         <f t="shared" si="1"/>
         <v>1.2811133798482151</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="2">
         <f t="shared" si="2"/>
         <v>1.3817146628689403</v>
       </c>
-      <c r="E61">
+      <c r="E61" s="2">
         <f t="shared" si="3"/>
         <v>1.6026836292214164</v>
       </c>
-      <c r="F61">
+      <c r="F61" s="2">
         <f t="shared" si="4"/>
         <v>0.24296747265258012</v>
       </c>
-      <c r="G61">
+      <c r="G61" s="2">
         <f t="shared" si="4"/>
         <v>0.10084337984821512</v>
       </c>
-      <c r="H61">
+      <c r="H61" s="2">
         <f t="shared" si="4"/>
         <v>0.20144466286894036</v>
       </c>
-      <c r="I61">
+      <c r="I61" s="2">
         <f t="shared" si="4"/>
         <v>0.42241362922141645</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A62" s="1">
+      <c r="J61" s="3"/>
+      <c r="K61" s="2"/>
+      <c r="L61" s="2"/>
+    </row>
+    <row r="62" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="5">
         <v>42473</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="6">
         <v>5.5577934126125599E-2</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="6">
         <f t="shared" si="1"/>
         <v>0.7394077033893528</v>
       </c>
-      <c r="D62">
+      <c r="D62" s="6">
         <f t="shared" si="2"/>
         <v>1.1379404915434765</v>
       </c>
-      <c r="E62">
+      <c r="E62" s="6">
         <f t="shared" si="3"/>
         <v>1.2853656275204071</v>
       </c>
-      <c r="F62">
+      <c r="F62" s="6">
         <f t="shared" si="4"/>
         <v>-1.1246920658738744</v>
       </c>
-      <c r="G62">
+      <c r="G62" s="6">
         <f t="shared" si="4"/>
         <v>-0.44086229661064713</v>
       </c>
-      <c r="H62">
+      <c r="H62" s="6">
         <f t="shared" si="4"/>
         <v>-4.232950845652339E-2</v>
       </c>
-      <c r="I62">
+      <c r="I62" s="6">
         <f t="shared" si="4"/>
         <v>0.10509562752040713</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A63" s="1">
+      <c r="J62" s="7">
+        <v>-5.5899999999999998E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A63" s="4">
         <v>42480</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="2">
         <v>0.93359321226213499</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="2">
         <f t="shared" si="1"/>
         <v>0.49458557319413027</v>
       </c>
-      <c r="D63">
+      <c r="D63" s="2">
         <f t="shared" si="2"/>
         <v>0.88784947652117274</v>
       </c>
-      <c r="E63">
+      <c r="E63" s="2">
         <f t="shared" si="3"/>
         <v>1.2223692940023063</v>
       </c>
-      <c r="F63">
+      <c r="F63" s="2">
         <f t="shared" si="4"/>
         <v>-0.24667678773786494</v>
       </c>
-      <c r="G63">
+      <c r="G63" s="2">
         <f t="shared" si="4"/>
         <v>-0.68568442680586972</v>
       </c>
-      <c r="H63">
+      <c r="H63" s="2">
         <f t="shared" si="4"/>
         <v>-0.29242052347882719</v>
       </c>
-      <c r="I63">
+      <c r="I63" s="2">
         <f t="shared" si="4"/>
         <v>4.2099294002306387E-2</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A64" s="1">
+      <c r="J63" s="3"/>
+      <c r="K63" s="2"/>
+      <c r="L63" s="2"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A64" s="4">
         <v>42487</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="2">
         <v>1.6397494150437</v>
       </c>
       <c r="C64" s="2">
@@ -3132,444 +3345,483 @@
         <f t="shared" si="4"/>
         <v>0.10088274948188514</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A65" s="1">
+      <c r="J64" s="3"/>
+      <c r="K64" s="2"/>
+      <c r="L64" s="2"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A65" s="4">
         <v>42494</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="2">
         <v>0.61208874547923797</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="2">
         <f t="shared" si="1"/>
         <v>1.1259190802614689</v>
       </c>
-      <c r="D65">
+      <c r="D65" s="2">
         <f t="shared" si="2"/>
         <v>0.81025232672779957</v>
       </c>
-      <c r="E65">
+      <c r="E65" s="2">
         <f t="shared" si="3"/>
         <v>1.0959834947983698</v>
       </c>
-      <c r="F65">
+      <c r="F65" s="2">
         <f t="shared" si="4"/>
         <v>-0.56818125452076196</v>
       </c>
-      <c r="G65">
+      <c r="G65" s="2">
         <f t="shared" si="4"/>
         <v>-5.4350919738531012E-2</v>
       </c>
-      <c r="H65">
+      <c r="H65" s="2">
         <f t="shared" si="4"/>
         <v>-0.37001767327220036</v>
       </c>
-      <c r="I65">
+      <c r="I65" s="2">
         <f t="shared" si="4"/>
         <v>-8.4286505201630169E-2</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A66" s="1">
+      <c r="J65" s="3"/>
+      <c r="K65" s="2"/>
+      <c r="L65" s="2"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A66" s="4">
         <v>42501</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="2">
         <v>0.131857117669444</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="2">
         <f t="shared" si="1"/>
         <v>0.37197293157434097</v>
       </c>
-      <c r="D66">
+      <c r="D66" s="2">
         <f t="shared" si="2"/>
         <v>0.82932212261362925</v>
       </c>
-      <c r="E66">
+      <c r="E66" s="2">
         <f t="shared" si="3"/>
         <v>0.98363130707855295</v>
       </c>
-      <c r="F66">
+      <c r="F66" s="2">
         <f t="shared" ref="F66:I97" si="5">B66-$L$1</f>
         <v>-1.0484128823305559</v>
       </c>
-      <c r="G66">
+      <c r="G66" s="2">
         <f t="shared" si="5"/>
         <v>-0.80829706842565896</v>
       </c>
-      <c r="H66">
+      <c r="H66" s="2">
         <f t="shared" si="5"/>
         <v>-0.35094787738637068</v>
       </c>
-      <c r="I66">
+      <c r="I66" s="2">
         <f t="shared" si="5"/>
         <v>-0.19663869292144698</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A67" s="1">
+      <c r="J66" s="3"/>
+      <c r="K66" s="2"/>
+      <c r="L66" s="2"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A67" s="4">
         <v>42508</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="2">
         <v>0.491811882271738</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="2">
         <f t="shared" si="1"/>
         <v>0.31183449997059098</v>
       </c>
-      <c r="D67">
+      <c r="D67" s="2">
         <f t="shared" si="2"/>
         <v>0.71887679011603001</v>
       </c>
-      <c r="E67">
+      <c r="E67" s="2">
         <f t="shared" si="3"/>
         <v>0.80336313331860132</v>
       </c>
-      <c r="F67">
+      <c r="F67" s="2">
         <f t="shared" si="5"/>
         <v>-0.68845811772826193</v>
       </c>
-      <c r="G67">
+      <c r="G67" s="2">
         <f t="shared" si="5"/>
         <v>-0.86843550002940895</v>
       </c>
-      <c r="H67">
+      <c r="H67" s="2">
         <f t="shared" si="5"/>
         <v>-0.46139320988396992</v>
       </c>
-      <c r="I67">
+      <c r="I67" s="2">
         <f t="shared" si="5"/>
         <v>-0.37690686668139861</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A68" s="1">
+      <c r="J67" s="3"/>
+      <c r="K67" s="2"/>
+      <c r="L67" s="2"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A68" s="4">
         <v>42515</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="2">
         <v>0.50060463247959097</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="2">
         <f t="shared" ref="C68:C112" si="6">AVERAGE(B67:B68)</f>
         <v>0.49620825737566449</v>
       </c>
-      <c r="D68">
+      <c r="D68" s="2">
         <f t="shared" si="2"/>
         <v>0.43409059447500276</v>
       </c>
-      <c r="E68">
+      <c r="E68" s="2">
         <f t="shared" si="3"/>
         <v>0.72356505149806893</v>
       </c>
-      <c r="F68">
+      <c r="F68" s="2">
         <f t="shared" si="5"/>
         <v>-0.67966536752040896</v>
       </c>
-      <c r="G68">
+      <c r="G68" s="2">
         <f t="shared" si="5"/>
         <v>-0.68406174262433539</v>
       </c>
-      <c r="H68">
+      <c r="H68" s="2">
         <f t="shared" si="5"/>
         <v>-0.74617940552499717</v>
       </c>
-      <c r="I68">
+      <c r="I68" s="2">
         <f t="shared" si="5"/>
         <v>-0.456704948501931</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A69" s="1">
+      <c r="J68" s="3"/>
+      <c r="K68" s="2"/>
+      <c r="L68" s="2"/>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A69" s="4">
         <v>42522</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="2">
         <v>2.02204792316489</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="2">
         <f t="shared" si="6"/>
         <v>1.2613262778222405</v>
       </c>
-      <c r="D69">
+      <c r="D69" s="2">
         <f t="shared" ref="D69:D112" si="7">AVERAGE(B66:B69)</f>
         <v>0.78658038889641579</v>
       </c>
-      <c r="E69">
+      <c r="E69" s="2">
         <f t="shared" si="3"/>
         <v>0.79841635781210762</v>
       </c>
-      <c r="F69">
+      <c r="F69" s="2">
         <f t="shared" si="5"/>
         <v>0.84177792316489009</v>
       </c>
-      <c r="G69">
+      <c r="G69" s="2">
         <f t="shared" si="5"/>
         <v>8.1056277822240563E-2</v>
       </c>
-      <c r="H69">
+      <c r="H69" s="2">
         <f t="shared" si="5"/>
         <v>-0.39368961110358414</v>
       </c>
-      <c r="I69">
+      <c r="I69" s="2">
         <f t="shared" si="5"/>
         <v>-0.38185364218789231</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A70" s="1">
+      <c r="J69" s="3"/>
+      <c r="K69" s="2"/>
+      <c r="L69" s="2"/>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A70" s="4">
         <v>42529</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="2">
         <v>1.4330154859212501</v>
       </c>
-      <c r="C70">
+      <c r="C70" s="2">
         <f t="shared" si="6"/>
         <v>1.72753170454307</v>
       </c>
-      <c r="D70">
+      <c r="D70" s="2">
         <f t="shared" si="7"/>
         <v>1.1118699809593673</v>
       </c>
-      <c r="E70">
+      <c r="E70" s="2">
         <f t="shared" si="3"/>
         <v>0.97059605178649822</v>
       </c>
-      <c r="F70">
+      <c r="F70" s="2">
         <f t="shared" si="5"/>
         <v>0.25274548592125012</v>
       </c>
-      <c r="G70">
+      <c r="G70" s="2">
         <f t="shared" si="5"/>
         <v>0.5472617045430701</v>
       </c>
-      <c r="H70">
+      <c r="H70" s="2">
         <f t="shared" si="5"/>
         <v>-6.8400019040632642E-2</v>
       </c>
-      <c r="I70">
+      <c r="I70" s="2">
         <f t="shared" si="5"/>
         <v>-0.20967394821350172</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A71" s="1">
+      <c r="J70" s="3"/>
+      <c r="K70" s="2"/>
+      <c r="L70" s="2"/>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A71" s="4">
         <v>42536</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="2">
         <v>0.38457567975991103</v>
       </c>
-      <c r="C71">
+      <c r="C71" s="2">
         <f t="shared" si="6"/>
         <v>0.90879558284058048</v>
       </c>
-      <c r="D71">
+      <c r="D71" s="2">
         <f t="shared" si="7"/>
         <v>1.0850609303314105</v>
       </c>
-      <c r="E71">
+      <c r="E71" s="2">
         <f t="shared" si="3"/>
         <v>0.90196886022372036</v>
       </c>
-      <c r="F71">
+      <c r="F71" s="2">
         <f t="shared" si="5"/>
         <v>-0.7956943202400889</v>
       </c>
-      <c r="G71">
+      <c r="G71" s="2">
         <f t="shared" si="5"/>
         <v>-0.27147441715941945</v>
       </c>
-      <c r="H71">
+      <c r="H71" s="2">
         <f t="shared" si="5"/>
         <v>-9.5209069668589441E-2</v>
       </c>
-      <c r="I71">
+      <c r="I71" s="2">
         <f t="shared" si="5"/>
         <v>-0.27830113977627957</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A72" s="1">
+      <c r="J71" s="3"/>
+      <c r="K71" s="2"/>
+      <c r="L71" s="2"/>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A72" s="4">
         <v>42543</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="2">
         <v>1.4790660967182601</v>
       </c>
-      <c r="C72">
+      <c r="C72" s="2">
         <f t="shared" si="6"/>
         <v>0.93182088823908549</v>
       </c>
-      <c r="D72">
+      <c r="D72" s="2">
         <f t="shared" si="7"/>
         <v>1.3296762963910778</v>
       </c>
-      <c r="E72">
+      <c r="E72" s="2">
         <f t="shared" si="3"/>
         <v>0.88188344543304042</v>
       </c>
-      <c r="F72">
+      <c r="F72" s="2">
         <f t="shared" si="5"/>
         <v>0.29879609671826013</v>
       </c>
-      <c r="G72">
+      <c r="G72" s="2">
         <f t="shared" si="5"/>
         <v>-0.24844911176091444</v>
       </c>
-      <c r="H72">
+      <c r="H72" s="2">
         <f t="shared" si="5"/>
         <v>0.14940629639107783</v>
       </c>
-      <c r="I72">
+      <c r="I72" s="2">
         <f t="shared" si="5"/>
         <v>-0.29838655456695951</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A73" s="1">
+      <c r="J72" s="3"/>
+      <c r="K72" s="2"/>
+      <c r="L72" s="2"/>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A73" s="4">
         <v>42550</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="2">
         <v>1.4418440560124901</v>
       </c>
-      <c r="C73">
+      <c r="C73" s="2">
         <f t="shared" si="6"/>
         <v>1.460455076365375</v>
       </c>
-      <c r="D73">
+      <c r="D73" s="2">
         <f t="shared" si="7"/>
         <v>1.1846253296029778</v>
       </c>
-      <c r="E73">
+      <c r="E73" s="2">
         <f t="shared" ref="E73:E112" si="8">AVERAGE(B66:B73)</f>
         <v>0.98560285924969682</v>
       </c>
-      <c r="F73">
+      <c r="F73" s="2">
         <f t="shared" si="5"/>
         <v>0.26157405601249017</v>
       </c>
-      <c r="G73">
+      <c r="G73" s="2">
         <f t="shared" si="5"/>
         <v>0.28018507636537504</v>
       </c>
-      <c r="H73">
+      <c r="H73" s="2">
         <f t="shared" si="5"/>
         <v>4.3553296029779087E-3</v>
       </c>
-      <c r="I73">
+      <c r="I73" s="2">
         <f t="shared" si="5"/>
         <v>-0.19466714075030311</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A74" s="1">
+      <c r="J73" s="3"/>
+      <c r="K73" s="2"/>
+      <c r="L73" s="2"/>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A74" s="4">
         <v>42557</v>
       </c>
-      <c r="B74">
+      <c r="B74" s="2">
         <v>1.3932832284193499</v>
       </c>
-      <c r="C74">
+      <c r="C74" s="2">
         <f t="shared" si="6"/>
         <v>1.4175636422159199</v>
       </c>
-      <c r="D74">
+      <c r="D74" s="2">
         <f t="shared" si="7"/>
         <v>1.1746922652275029</v>
       </c>
-      <c r="E74">
+      <c r="E74" s="2">
         <f t="shared" si="8"/>
         <v>1.143281123093435</v>
       </c>
-      <c r="F74">
+      <c r="F74" s="2">
         <f t="shared" si="5"/>
         <v>0.21301322841935</v>
       </c>
-      <c r="G74">
+      <c r="G74" s="2">
         <f t="shared" si="5"/>
         <v>0.23729364221591998</v>
       </c>
-      <c r="H74">
+      <c r="H74" s="2">
         <f t="shared" si="5"/>
         <v>-5.5777347724970117E-3</v>
       </c>
-      <c r="I74">
+      <c r="I74" s="2">
         <f t="shared" si="5"/>
         <v>-3.6988876906564938E-2</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A75" s="1">
+      <c r="J74" s="3"/>
+      <c r="K74" s="2"/>
+      <c r="L74" s="2"/>
+    </row>
+    <row r="75" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="5">
         <v>42564</v>
       </c>
-      <c r="B75">
+      <c r="B75" s="6">
         <v>1.2709499330474401</v>
       </c>
-      <c r="C75">
+      <c r="C75" s="6">
         <f t="shared" si="6"/>
         <v>1.332116580733395</v>
       </c>
-      <c r="D75">
+      <c r="D75" s="6">
         <f t="shared" si="7"/>
         <v>1.3962858285493849</v>
       </c>
-      <c r="E75">
+      <c r="E75" s="6">
         <f t="shared" si="8"/>
         <v>1.2406733794403977</v>
       </c>
-      <c r="F75">
+      <c r="F75" s="6">
         <f t="shared" si="5"/>
         <v>9.0679933047440153E-2</v>
       </c>
-      <c r="G75">
+      <c r="G75" s="6">
         <f t="shared" si="5"/>
         <v>0.15184658073339508</v>
       </c>
-      <c r="H75">
+      <c r="H75" s="6">
         <f t="shared" si="5"/>
         <v>0.21601582854938495</v>
       </c>
-      <c r="I75">
+      <c r="I75" s="6">
         <f t="shared" si="5"/>
         <v>6.0403379440397753E-2</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A76" s="1">
+      <c r="J75" s="7">
+        <v>-1.8E-3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A76" s="4">
         <v>42571</v>
       </c>
-      <c r="B76">
+      <c r="B76" s="2">
         <v>1.6536036182186</v>
       </c>
-      <c r="C76">
+      <c r="C76" s="2">
         <f t="shared" si="6"/>
         <v>1.4622767756330202</v>
       </c>
-      <c r="D76">
+      <c r="D76" s="2">
         <f t="shared" si="7"/>
         <v>1.43992020892447</v>
       </c>
-      <c r="E76">
+      <c r="E76" s="2">
         <f t="shared" si="8"/>
         <v>1.384798252657774</v>
       </c>
-      <c r="F76">
+      <c r="F76" s="2">
         <f t="shared" si="5"/>
         <v>0.47333361821860009</v>
       </c>
-      <c r="G76">
+      <c r="G76" s="2">
         <f t="shared" si="5"/>
         <v>0.28200677563302023</v>
       </c>
-      <c r="H76">
+      <c r="H76" s="2">
         <f t="shared" si="5"/>
         <v>0.25965020892447011</v>
       </c>
-      <c r="I76">
+      <c r="I76" s="2">
         <f t="shared" si="5"/>
         <v>0.20452825265777408</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A77" s="1">
+      <c r="J76" s="3"/>
+      <c r="K76" s="2"/>
+      <c r="L76" s="2"/>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A77" s="4">
         <v>42578</v>
       </c>
-      <c r="B77">
+      <c r="B77" s="2">
         <v>0.39938119452340398</v>
       </c>
       <c r="C77" s="2">
@@ -3600,444 +3852,483 @@
         <f t="shared" si="5"/>
         <v>1.6949115775881651E-3</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A78" s="1">
+      <c r="J77" s="3"/>
+      <c r="K77" s="2"/>
+      <c r="L77" s="2"/>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A78" s="4">
         <v>42585</v>
       </c>
-      <c r="B78">
+      <c r="B78" s="2">
         <v>0.91133708406363501</v>
       </c>
-      <c r="C78">
+      <c r="C78" s="2">
         <f t="shared" si="6"/>
         <v>0.65535913929351952</v>
       </c>
-      <c r="D78">
+      <c r="D78" s="2">
         <f t="shared" si="7"/>
         <v>1.0588179574632699</v>
       </c>
-      <c r="E78">
+      <c r="E78" s="2">
         <f t="shared" si="8"/>
         <v>1.1167551113453864</v>
       </c>
-      <c r="F78">
+      <c r="F78" s="2">
         <f t="shared" si="5"/>
         <v>-0.26893291593636492</v>
       </c>
-      <c r="G78">
+      <c r="G78" s="2">
         <f t="shared" si="5"/>
         <v>-0.52491086070648041</v>
       </c>
-      <c r="H78">
+      <c r="H78" s="2">
         <f t="shared" si="5"/>
         <v>-0.12145204253673003</v>
       </c>
-      <c r="I78">
+      <c r="I78" s="2">
         <f t="shared" si="5"/>
         <v>-6.3514888654613522E-2</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A79" s="1">
+      <c r="J78" s="3"/>
+      <c r="K78" s="2"/>
+      <c r="L78" s="2"/>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A79" s="4">
         <v>42592</v>
       </c>
-      <c r="B79">
+      <c r="B79" s="2">
         <v>-3.7794409769021597E-2</v>
       </c>
-      <c r="C79">
+      <c r="C79" s="2">
         <f t="shared" si="6"/>
         <v>0.4367713371473067</v>
       </c>
-      <c r="D79">
+      <c r="D79" s="2">
         <f t="shared" si="7"/>
         <v>0.73163187175915423</v>
       </c>
-      <c r="E79">
+      <c r="E79" s="2">
         <f t="shared" si="8"/>
         <v>1.0639588501542696</v>
       </c>
-      <c r="F79">
+      <c r="F79" s="2">
         <f t="shared" si="5"/>
         <v>-1.2180644097690214</v>
       </c>
-      <c r="G79">
+      <c r="G79" s="2">
         <f t="shared" si="5"/>
         <v>-0.74349866285269317</v>
       </c>
-      <c r="H79">
+      <c r="H79" s="2">
         <f t="shared" si="5"/>
         <v>-0.4486381282408457</v>
       </c>
-      <c r="I79">
+      <c r="I79" s="2">
         <f t="shared" si="5"/>
         <v>-0.11631114984573032</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A80" s="1">
+      <c r="J79" s="3"/>
+      <c r="K79" s="2"/>
+      <c r="L79" s="2"/>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A80" s="4">
         <v>42599</v>
       </c>
-      <c r="B80">
+      <c r="B80" s="2">
         <v>0.187924172852792</v>
       </c>
-      <c r="C80">
+      <c r="C80" s="2">
         <f t="shared" si="6"/>
         <v>7.5064881541885203E-2</v>
       </c>
-      <c r="D80">
+      <c r="D80" s="2">
         <f t="shared" si="7"/>
         <v>0.3652120104177024</v>
       </c>
-      <c r="E80">
+      <c r="E80" s="2">
         <f t="shared" si="8"/>
         <v>0.90256610967108619</v>
       </c>
-      <c r="F80">
+      <c r="F80" s="2">
         <f t="shared" si="5"/>
         <v>-0.99234582714720787</v>
       </c>
-      <c r="G80">
+      <c r="G80" s="2">
         <f t="shared" si="5"/>
         <v>-1.1052051184581146</v>
       </c>
-      <c r="H80">
+      <c r="H80" s="2">
         <f t="shared" si="5"/>
         <v>-0.81505798958229758</v>
       </c>
-      <c r="I80">
+      <c r="I80" s="2">
         <f t="shared" si="5"/>
         <v>-0.27770389032891374</v>
       </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A81" s="1">
+      <c r="J80" s="3"/>
+      <c r="K80" s="2"/>
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A81" s="4">
         <v>42606</v>
       </c>
-      <c r="B81">
+      <c r="B81" s="2">
         <v>1.9423043736880301</v>
       </c>
-      <c r="C81">
+      <c r="C81" s="2">
         <f t="shared" si="6"/>
         <v>1.0651142732704111</v>
       </c>
-      <c r="D81">
+      <c r="D81" s="2">
         <f t="shared" si="7"/>
         <v>0.75094280520885892</v>
       </c>
-      <c r="E81">
+      <c r="E81" s="2">
         <f t="shared" si="8"/>
         <v>0.96512364938052864</v>
       </c>
-      <c r="F81">
+      <c r="F81" s="2">
         <f t="shared" si="5"/>
         <v>0.76203437368803018</v>
       </c>
-      <c r="G81">
+      <c r="G81" s="2">
         <f t="shared" si="5"/>
         <v>-0.11515572672958885</v>
       </c>
-      <c r="H81">
+      <c r="H81" s="2">
         <f t="shared" si="5"/>
         <v>-0.42932719479114101</v>
       </c>
-      <c r="I81">
+      <c r="I81" s="2">
         <f t="shared" si="5"/>
         <v>-0.21514635061947129</v>
       </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A82" s="1">
+      <c r="J81" s="3"/>
+      <c r="K81" s="2"/>
+      <c r="L81" s="2"/>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A82" s="4">
         <v>42613</v>
       </c>
-      <c r="B82">
+      <c r="B82" s="2">
         <v>1.2394297166874999</v>
       </c>
-      <c r="C82">
+      <c r="C82" s="2">
         <f t="shared" si="6"/>
         <v>1.5908670451877649</v>
       </c>
-      <c r="D82">
+      <c r="D82" s="2">
         <f t="shared" si="7"/>
         <v>0.83296596336482509</v>
       </c>
-      <c r="E82">
+      <c r="E82" s="2">
         <f t="shared" si="8"/>
         <v>0.94589196041404755</v>
       </c>
-      <c r="F82">
+      <c r="F82" s="2">
         <f t="shared" si="5"/>
         <v>5.9159716687499975E-2</v>
       </c>
-      <c r="G82">
+      <c r="G82" s="2">
         <f t="shared" si="5"/>
         <v>0.41059704518776496</v>
       </c>
-      <c r="H82">
+      <c r="H82" s="2">
         <f t="shared" si="5"/>
         <v>-0.34730403663517484</v>
       </c>
-      <c r="I82">
+      <c r="I82" s="2">
         <f t="shared" si="5"/>
         <v>-0.23437803958595238</v>
       </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A83" s="1">
+      <c r="J82" s="3"/>
+      <c r="K82" s="2"/>
+      <c r="L82" s="2"/>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A83" s="4">
         <v>42620</v>
       </c>
-      <c r="B83">
+      <c r="B83" s="2">
         <v>1.2106645378269201</v>
       </c>
-      <c r="C83">
+      <c r="C83" s="2">
         <f t="shared" si="6"/>
         <v>1.2250471272572101</v>
       </c>
-      <c r="D83">
+      <c r="D83" s="2">
         <f t="shared" si="7"/>
         <v>1.1450807002638106</v>
       </c>
-      <c r="E83">
+      <c r="E83" s="2">
         <f t="shared" si="8"/>
         <v>0.93835628601148235</v>
       </c>
-      <c r="F83">
+      <c r="F83" s="2">
         <f t="shared" si="5"/>
         <v>3.0394537826920143E-2</v>
       </c>
-      <c r="G83">
+      <c r="G83" s="2">
         <f t="shared" si="5"/>
         <v>4.477712725721017E-2</v>
       </c>
-      <c r="H83">
+      <c r="H83" s="2">
         <f t="shared" si="5"/>
         <v>-3.5189299736189339E-2</v>
       </c>
-      <c r="I83">
+      <c r="I83" s="2">
         <f t="shared" si="5"/>
         <v>-0.24191371398851758</v>
       </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A84" s="1">
+      <c r="J83" s="3"/>
+      <c r="K83" s="2"/>
+      <c r="L83" s="2"/>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A84" s="4">
         <v>42627</v>
       </c>
-      <c r="B84">
+      <c r="B84" s="2">
         <v>1.89685568223913</v>
       </c>
-      <c r="C84">
+      <c r="C84" s="2">
         <f t="shared" si="6"/>
         <v>1.5537601100330249</v>
       </c>
-      <c r="D84">
+      <c r="D84" s="2">
         <f t="shared" si="7"/>
         <v>1.5723135776103949</v>
       </c>
-      <c r="E84">
+      <c r="E84" s="2">
         <f t="shared" si="8"/>
         <v>0.96876279401404863</v>
       </c>
-      <c r="F84">
+      <c r="F84" s="2">
         <f t="shared" si="5"/>
         <v>0.71658568223913011</v>
       </c>
-      <c r="G84">
+      <c r="G84" s="2">
         <f t="shared" si="5"/>
         <v>0.37349011003302501</v>
       </c>
-      <c r="H84">
+      <c r="H84" s="2">
         <f t="shared" si="5"/>
         <v>0.39204357761039499</v>
       </c>
-      <c r="I84">
+      <c r="I84" s="2">
         <f t="shared" si="5"/>
         <v>-0.2115072059859513</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A85" s="1">
+      <c r="J84" s="3"/>
+      <c r="K84" s="2"/>
+      <c r="L84" s="2"/>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A85" s="4">
         <v>42634</v>
       </c>
-      <c r="B85">
+      <c r="B85" s="2">
         <v>1.5552170463195101</v>
       </c>
-      <c r="C85">
+      <c r="C85" s="2">
         <f t="shared" si="6"/>
         <v>1.7260363642793202</v>
       </c>
-      <c r="D85">
+      <c r="D85" s="2">
         <f t="shared" si="7"/>
         <v>1.4755417457682649</v>
       </c>
-      <c r="E85">
+      <c r="E85" s="2">
         <f t="shared" si="8"/>
         <v>1.113242275488562</v>
       </c>
-      <c r="F85">
+      <c r="F85" s="2">
         <f t="shared" si="5"/>
         <v>0.37494704631951015</v>
       </c>
-      <c r="G85">
+      <c r="G85" s="2">
         <f t="shared" si="5"/>
         <v>0.54576636427932024</v>
       </c>
-      <c r="H85">
+      <c r="H85" s="2">
         <f t="shared" si="5"/>
         <v>0.29527174576826498</v>
       </c>
-      <c r="I85">
+      <c r="I85" s="2">
         <f t="shared" si="5"/>
         <v>-6.7027724511437903E-2</v>
       </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A86" s="1">
+      <c r="J85" s="3"/>
+      <c r="K85" s="2"/>
+      <c r="L85" s="2"/>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A86" s="4">
         <v>42641</v>
       </c>
-      <c r="B86">
+      <c r="B86" s="2">
         <v>1.2147390745162501</v>
       </c>
-      <c r="C86">
+      <c r="C86" s="2">
         <f t="shared" si="6"/>
         <v>1.3849780604178801</v>
       </c>
-      <c r="D86">
+      <c r="D86" s="2">
         <f t="shared" si="7"/>
         <v>1.4693690852254524</v>
       </c>
-      <c r="E86">
+      <c r="E86" s="2">
         <f t="shared" si="8"/>
         <v>1.1511675242951387</v>
       </c>
-      <c r="F86">
+      <c r="F86" s="2">
         <f t="shared" si="5"/>
         <v>3.4469074516250142E-2</v>
       </c>
-      <c r="G86">
+      <c r="G86" s="2">
         <f t="shared" si="5"/>
         <v>0.20470806041788014</v>
       </c>
-      <c r="H86">
+      <c r="H86" s="2">
         <f t="shared" si="5"/>
         <v>0.28909908522545247</v>
       </c>
-      <c r="I86">
+      <c r="I86" s="2">
         <f t="shared" si="5"/>
         <v>-2.9102475704861241E-2</v>
       </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A87" s="1">
+      <c r="J86" s="3"/>
+      <c r="K86" s="2"/>
+      <c r="L86" s="2"/>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A87" s="4">
         <v>42648</v>
       </c>
-      <c r="B87">
+      <c r="B87" s="2">
         <v>1.1045528816666601</v>
       </c>
-      <c r="C87">
+      <c r="C87" s="2">
         <f t="shared" si="6"/>
         <v>1.1596459780914552</v>
       </c>
-      <c r="D87">
+      <c r="D87" s="2">
         <f t="shared" si="7"/>
         <v>1.4428411711853877</v>
       </c>
-      <c r="E87">
+      <c r="E87" s="2">
         <f t="shared" si="8"/>
         <v>1.2939609357245991</v>
       </c>
-      <c r="F87">
+      <c r="F87" s="2">
         <f t="shared" si="5"/>
         <v>-7.5717118333339828E-2</v>
       </c>
-      <c r="G87">
+      <c r="G87" s="2">
         <f t="shared" si="5"/>
         <v>-2.0624021908544732E-2</v>
       </c>
-      <c r="H87">
+      <c r="H87" s="2">
         <f t="shared" si="5"/>
         <v>0.26257117118538775</v>
       </c>
-      <c r="I87">
+      <c r="I87" s="2">
         <f t="shared" si="5"/>
         <v>0.11369093572459921</v>
       </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A88" s="1">
+      <c r="J87" s="3"/>
+      <c r="K87" s="2"/>
+      <c r="L87" s="2"/>
+    </row>
+    <row r="88" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="5">
         <v>42655</v>
       </c>
-      <c r="B88">
+      <c r="B88" s="6">
         <v>0.97005112836602403</v>
       </c>
-      <c r="C88">
+      <c r="C88" s="6">
         <f t="shared" si="6"/>
         <v>1.037302005016342</v>
       </c>
-      <c r="D88">
+      <c r="D88" s="6">
         <f t="shared" si="7"/>
         <v>1.2111400327171111</v>
       </c>
-      <c r="E88">
+      <c r="E88" s="6">
         <f t="shared" si="8"/>
         <v>1.3917268051637528</v>
       </c>
-      <c r="F88">
+      <c r="F88" s="6">
         <f t="shared" si="5"/>
         <v>-0.2102188716339759</v>
       </c>
-      <c r="G88">
+      <c r="G88" s="6">
         <f t="shared" si="5"/>
         <v>-0.14296799498365798</v>
       </c>
-      <c r="H88">
+      <c r="H88" s="6">
         <f t="shared" si="5"/>
         <v>3.0870032717111195E-2</v>
       </c>
-      <c r="I88">
+      <c r="I88" s="6">
         <f t="shared" si="5"/>
         <v>0.21145680516375287</v>
       </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A89" s="1">
+      <c r="J88" s="7">
+        <v>-2.6200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A89" s="4">
         <v>42662</v>
       </c>
-      <c r="B89">
+      <c r="B89" s="2">
         <v>0.523786290119719</v>
       </c>
-      <c r="C89">
+      <c r="C89" s="2">
         <f t="shared" si="6"/>
         <v>0.74691870924287151</v>
       </c>
-      <c r="D89">
+      <c r="D89" s="2">
         <f t="shared" si="7"/>
         <v>0.95328234366716336</v>
       </c>
-      <c r="E89">
+      <c r="E89" s="2">
         <f t="shared" si="8"/>
         <v>1.214412044717714</v>
       </c>
-      <c r="F89">
+      <c r="F89" s="2">
         <f t="shared" si="5"/>
         <v>-0.65648370988028093</v>
       </c>
-      <c r="G89">
+      <c r="G89" s="2">
         <f t="shared" si="5"/>
         <v>-0.43335129075712842</v>
       </c>
-      <c r="H89">
+      <c r="H89" s="2">
         <f t="shared" si="5"/>
         <v>-0.22698765633283657</v>
       </c>
-      <c r="I89">
+      <c r="I89" s="2">
         <f t="shared" si="5"/>
         <v>3.4142044717714093E-2</v>
       </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A90" s="1">
+      <c r="J89" s="3"/>
+      <c r="K89" s="2"/>
+      <c r="L89" s="2"/>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A90" s="4">
         <v>42669</v>
       </c>
-      <c r="B90">
+      <c r="B90" s="2">
         <v>1.84375681618444</v>
       </c>
       <c r="C90" s="2">
@@ -4068,480 +4359,522 @@
         <f t="shared" si="5"/>
         <v>0.1096829321548316</v>
       </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A91" s="1">
+      <c r="J90" s="3"/>
+      <c r="K90" s="2"/>
+      <c r="L90" s="2"/>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A91" s="4">
         <v>42676</v>
       </c>
-      <c r="B91">
+      <c r="B91" s="2">
         <v>0.94974829692277996</v>
       </c>
-      <c r="C91">
+      <c r="C91" s="2">
         <f t="shared" si="6"/>
         <v>1.3967525565536101</v>
       </c>
-      <c r="D91">
+      <c r="D91" s="2">
         <f t="shared" si="7"/>
         <v>1.0718356328982408</v>
       </c>
-      <c r="E91">
+      <c r="E91" s="2">
         <f t="shared" si="8"/>
         <v>1.2573384020418141</v>
       </c>
-      <c r="F91">
+      <c r="F91" s="2">
         <f t="shared" si="5"/>
         <v>-0.23052170307721997</v>
       </c>
-      <c r="G91">
+      <c r="G91" s="2">
         <f t="shared" si="5"/>
         <v>0.21648255655361015</v>
       </c>
-      <c r="H91">
+      <c r="H91" s="2">
         <f t="shared" si="5"/>
         <v>-0.10843436710175913</v>
       </c>
-      <c r="I91">
+      <c r="I91" s="2">
         <f t="shared" si="5"/>
         <v>7.7068402041814199E-2</v>
       </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A92" s="1">
+      <c r="J91" s="3"/>
+      <c r="K91" s="2"/>
+      <c r="L91" s="2"/>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A92" s="4">
         <v>42683</v>
       </c>
-      <c r="B92">
+      <c r="B92" s="2">
         <v>1.3286685936284699</v>
       </c>
-      <c r="C92">
+      <c r="C92" s="2">
         <f t="shared" si="6"/>
         <v>1.1392084452756248</v>
       </c>
-      <c r="D92">
+      <c r="D92" s="2">
         <f t="shared" si="7"/>
         <v>1.1614899992138521</v>
       </c>
-      <c r="E92">
+      <c r="E92" s="2">
         <f t="shared" si="8"/>
         <v>1.1863150159654816</v>
       </c>
-      <c r="F92">
+      <c r="F92" s="2">
         <f t="shared" si="5"/>
         <v>0.14839859362846997</v>
       </c>
-      <c r="G92">
+      <c r="G92" s="2">
         <f t="shared" si="5"/>
         <v>-4.1061554724375116E-2</v>
       </c>
-      <c r="H92">
+      <c r="H92" s="2">
         <f t="shared" si="5"/>
         <v>-1.8780000786147832E-2</v>
       </c>
-      <c r="I92">
+      <c r="I92" s="2">
         <f t="shared" si="5"/>
         <v>6.0450159654816815E-3</v>
       </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A93" s="1">
+      <c r="J92" s="3"/>
+      <c r="K92" s="2"/>
+      <c r="L92" s="2"/>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A93" s="4">
         <v>42690</v>
       </c>
-      <c r="B93">
+      <c r="B93" s="2">
         <v>1.3867717853944299</v>
       </c>
-      <c r="C93">
+      <c r="C93" s="2">
         <f t="shared" si="6"/>
         <v>1.3577201895114499</v>
       </c>
-      <c r="D93">
+      <c r="D93" s="2">
         <f t="shared" si="7"/>
         <v>1.3772363730325301</v>
       </c>
-      <c r="E93">
+      <c r="E93" s="2">
         <f t="shared" si="8"/>
         <v>1.1652593583498467</v>
       </c>
-      <c r="F93">
+      <c r="F93" s="2">
         <f t="shared" si="5"/>
         <v>0.20650178539442998</v>
       </c>
-      <c r="G93">
+      <c r="G93" s="2">
         <f t="shared" si="5"/>
         <v>0.17745018951144997</v>
       </c>
-      <c r="H93">
+      <c r="H93" s="2">
         <f t="shared" si="5"/>
         <v>0.19696637303253017</v>
       </c>
-      <c r="I93">
+      <c r="I93" s="2">
         <f t="shared" si="5"/>
         <v>-1.50106416501532E-2</v>
       </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A94" s="1">
+      <c r="J93" s="3"/>
+      <c r="K93" s="2"/>
+      <c r="L93" s="2"/>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A94" s="4">
         <v>42697</v>
       </c>
-      <c r="B94">
+      <c r="B94" s="2">
         <v>-1.40947135607791</v>
       </c>
-      <c r="C94">
+      <c r="C94" s="2">
         <f t="shared" si="6"/>
         <v>-1.1349785341740026E-2</v>
       </c>
-      <c r="D94">
+      <c r="D94" s="2">
         <f t="shared" si="7"/>
         <v>0.56392932996694234</v>
       </c>
-      <c r="E94">
+      <c r="E94" s="2">
         <f t="shared" si="8"/>
         <v>0.83723305452557661</v>
       </c>
-      <c r="F94">
+      <c r="F94" s="2">
         <f t="shared" si="5"/>
         <v>-2.5897413560779099</v>
       </c>
-      <c r="G94">
+      <c r="G94" s="2">
         <f t="shared" si="5"/>
         <v>-1.1916197853417398</v>
       </c>
-      <c r="H94">
+      <c r="H94" s="2">
         <f t="shared" si="5"/>
         <v>-0.61634067003305759</v>
       </c>
-      <c r="I94">
+      <c r="I94" s="2">
         <f t="shared" si="5"/>
         <v>-0.34303694547442332</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A95" s="1">
+      <c r="J94" s="3"/>
+      <c r="K94" s="2"/>
+      <c r="L94" s="2"/>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A95" s="4">
         <v>42704</v>
       </c>
-      <c r="B95">
+      <c r="B95" s="2">
         <v>1.0056645916178799</v>
       </c>
-      <c r="C95">
+      <c r="C95" s="2">
         <f t="shared" si="6"/>
         <v>-0.20190338223001503</v>
       </c>
-      <c r="D95">
+      <c r="D95" s="2">
         <f t="shared" si="7"/>
         <v>0.57790840364071738</v>
       </c>
-      <c r="E95">
+      <c r="E95" s="2">
         <f t="shared" si="8"/>
         <v>0.82487201826947909</v>
       </c>
-      <c r="F95">
+      <c r="F95" s="2">
         <f t="shared" si="5"/>
         <v>-0.17460540838212002</v>
       </c>
-      <c r="G95">
+      <c r="G95" s="2">
         <f t="shared" si="5"/>
         <v>-1.3821733822300151</v>
       </c>
-      <c r="H95">
+      <c r="H95" s="2">
         <f t="shared" si="5"/>
         <v>-0.60236159635928255</v>
       </c>
-      <c r="I95">
+      <c r="I95" s="2">
         <f t="shared" si="5"/>
         <v>-0.35539798173052084</v>
       </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A96" s="1">
+      <c r="J95" s="3"/>
+      <c r="K95" s="2"/>
+      <c r="L95" s="2"/>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A96" s="4">
         <v>42711</v>
       </c>
-      <c r="B96">
+      <c r="B96" s="2">
         <v>1.2054812590189501</v>
       </c>
-      <c r="C96">
+      <c r="C96" s="2">
         <f t="shared" si="6"/>
         <v>1.105572925318415</v>
       </c>
-      <c r="D96">
+      <c r="D96" s="2">
         <f t="shared" si="7"/>
         <v>0.54711156998833754</v>
       </c>
-      <c r="E96">
+      <c r="E96" s="2">
         <f t="shared" si="8"/>
         <v>0.85430078460109471</v>
       </c>
-      <c r="F96">
+      <c r="F96" s="2">
         <f t="shared" si="5"/>
         <v>2.5211259018950161E-2</v>
       </c>
-      <c r="G96">
+      <c r="G96" s="2">
         <f t="shared" si="5"/>
         <v>-7.469707468158493E-2</v>
       </c>
-      <c r="H96">
+      <c r="H96" s="2">
         <f t="shared" si="5"/>
         <v>-0.63315843001166239</v>
       </c>
-      <c r="I96">
+      <c r="I96" s="2">
         <f t="shared" si="5"/>
         <v>-0.32596921539890522</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A97" s="1">
+      <c r="J96" s="3"/>
+      <c r="K96" s="2"/>
+      <c r="L96" s="2"/>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A97" s="4">
         <v>42718</v>
       </c>
-      <c r="B97">
+      <c r="B97" s="2">
         <v>0.79911369494339601</v>
       </c>
-      <c r="C97">
+      <c r="C97" s="2">
         <f t="shared" si="6"/>
         <v>1.002297476981173</v>
       </c>
-      <c r="D97">
+      <c r="D97" s="2">
         <f t="shared" si="7"/>
         <v>0.40019704737557904</v>
       </c>
-      <c r="E97">
+      <c r="E97" s="2">
         <f t="shared" si="8"/>
         <v>0.88871671020405452</v>
       </c>
-      <c r="F97">
+      <c r="F97" s="2">
         <f t="shared" si="5"/>
         <v>-0.38115630505660392</v>
       </c>
-      <c r="G97">
+      <c r="G97" s="2">
         <f t="shared" si="5"/>
         <v>-0.17797252301882693</v>
       </c>
-      <c r="H97">
+      <c r="H97" s="2">
         <f t="shared" si="5"/>
         <v>-0.78007295262442089</v>
       </c>
-      <c r="I97">
+      <c r="I97" s="2">
         <f t="shared" si="5"/>
         <v>-0.29155328979594541</v>
       </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A98" s="1">
+      <c r="J97" s="3"/>
+      <c r="K97" s="2"/>
+      <c r="L97" s="2"/>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A98" s="4">
         <v>42725</v>
       </c>
-      <c r="B98">
+      <c r="B98" s="2">
         <v>1.5177761037222199</v>
       </c>
-      <c r="C98">
+      <c r="C98" s="2">
         <f t="shared" si="6"/>
         <v>1.158444899332808</v>
       </c>
-      <c r="D98">
+      <c r="D98" s="2">
         <f t="shared" si="7"/>
         <v>1.1320089123256114</v>
       </c>
-      <c r="E98">
+      <c r="E98" s="2">
         <f t="shared" si="8"/>
         <v>0.84796912114627687</v>
       </c>
-      <c r="F98">
+      <c r="F98" s="2">
         <f t="shared" ref="F98:I112" si="9">B98-$L$1</f>
         <v>0.33750610372222001</v>
       </c>
-      <c r="G98">
+      <c r="G98" s="2">
         <f t="shared" si="9"/>
         <v>-2.1825100667191899E-2</v>
       </c>
-      <c r="H98">
+      <c r="H98" s="2">
         <f t="shared" si="9"/>
         <v>-4.8261087674388525E-2</v>
       </c>
-      <c r="I98">
+      <c r="I98" s="2">
         <f t="shared" si="9"/>
         <v>-0.33230087885372306</v>
       </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A99" s="1">
+      <c r="J98" s="3"/>
+      <c r="K98" s="2"/>
+      <c r="L98" s="2"/>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A99" s="4">
         <v>42732</v>
       </c>
-      <c r="B99">
+      <c r="B99" s="2">
         <v>1.9330735633430201</v>
       </c>
-      <c r="C99">
+      <c r="C99" s="2">
         <f t="shared" si="6"/>
         <v>1.7254248335326201</v>
       </c>
-      <c r="D99">
+      <c r="D99" s="2">
         <f t="shared" si="7"/>
         <v>1.3638611552568967</v>
       </c>
-      <c r="E99">
+      <c r="E99" s="2">
         <f t="shared" si="8"/>
         <v>0.97088477944880691</v>
       </c>
-      <c r="F99">
+      <c r="F99" s="2">
         <f t="shared" si="9"/>
         <v>0.75280356334302012</v>
       </c>
-      <c r="G99">
+      <c r="G99" s="2">
         <f t="shared" si="9"/>
         <v>0.54515483353262018</v>
       </c>
-      <c r="H99">
+      <c r="H99" s="2">
         <f t="shared" si="9"/>
         <v>0.18359115525689673</v>
       </c>
-      <c r="I99">
+      <c r="I99" s="2">
         <f t="shared" si="9"/>
         <v>-0.20938522055119302</v>
       </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A100" s="1">
+      <c r="J99" s="3"/>
+      <c r="K99" s="2"/>
+      <c r="L99" s="2"/>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A100" s="4">
         <v>42739</v>
       </c>
-      <c r="B100">
+      <c r="B100" s="2">
         <v>1.5047406202551501</v>
       </c>
-      <c r="C100">
+      <c r="C100" s="2">
         <f t="shared" si="6"/>
         <v>1.718907091799085</v>
       </c>
-      <c r="D100">
+      <c r="D100" s="2">
         <f t="shared" si="7"/>
         <v>1.4386759955659465</v>
       </c>
-      <c r="E100">
+      <c r="E100" s="2">
         <f t="shared" si="8"/>
         <v>0.99289378277714202</v>
       </c>
-      <c r="F100">
+      <c r="F100" s="2">
         <f t="shared" si="9"/>
         <v>0.32447062025515017</v>
       </c>
-      <c r="G100">
+      <c r="G100" s="2">
         <f t="shared" si="9"/>
         <v>0.53863709179908503</v>
       </c>
-      <c r="H100">
+      <c r="H100" s="2">
         <f t="shared" si="9"/>
         <v>0.25840599556594657</v>
       </c>
-      <c r="I100">
+      <c r="I100" s="2">
         <f t="shared" si="9"/>
         <v>-0.18737621722285791</v>
       </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A101" s="1">
+      <c r="J100" s="3"/>
+      <c r="K100" s="2"/>
+      <c r="L100" s="2"/>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A101" s="4">
         <v>42746</v>
       </c>
-      <c r="B101">
+      <c r="B101" s="2">
         <v>1.9017026684713301</v>
       </c>
-      <c r="C101">
+      <c r="C101" s="2">
         <f t="shared" si="6"/>
         <v>1.7032216443632402</v>
       </c>
-      <c r="D101">
+      <c r="D101" s="2">
         <f t="shared" si="7"/>
         <v>1.7143232389479302</v>
       </c>
-      <c r="E101">
+      <c r="E101" s="2">
         <f t="shared" si="8"/>
         <v>1.0572601431617545</v>
       </c>
-      <c r="F101">
+      <c r="F101" s="2">
         <f t="shared" si="9"/>
         <v>0.72143266847133014</v>
       </c>
-      <c r="G101">
+      <c r="G101" s="2">
         <f t="shared" si="9"/>
         <v>0.52295164436324026</v>
       </c>
-      <c r="H101">
+      <c r="H101" s="2">
         <f t="shared" si="9"/>
         <v>0.53405323894793022</v>
       </c>
-      <c r="I101">
+      <c r="I101" s="2">
         <f t="shared" si="9"/>
         <v>-0.12300985683824539</v>
       </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A102" s="1">
+      <c r="J101" s="3"/>
+      <c r="K101" s="2"/>
+      <c r="L101" s="2"/>
+    </row>
+    <row r="102" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A102" s="5">
         <v>42753</v>
       </c>
-      <c r="B102">
+      <c r="B102" s="6">
         <v>0.919569673846791</v>
       </c>
-      <c r="C102">
+      <c r="C102" s="6">
         <f t="shared" si="6"/>
         <v>1.4106361711590605</v>
       </c>
-      <c r="D102">
+      <c r="D102" s="6">
         <f t="shared" si="7"/>
         <v>1.5647716314790727</v>
       </c>
-      <c r="E102">
+      <c r="E102" s="6">
         <f t="shared" si="8"/>
         <v>1.3483902719023422</v>
       </c>
-      <c r="F102">
+      <c r="F102" s="6">
         <f t="shared" si="9"/>
         <v>-0.26070032615320893</v>
       </c>
-      <c r="G102">
+      <c r="G102" s="6">
         <f t="shared" si="9"/>
         <v>0.23036617115906055</v>
       </c>
-      <c r="H102">
+      <c r="H102" s="6">
         <f t="shared" si="9"/>
         <v>0.38450163147907279</v>
       </c>
-      <c r="I102">
+      <c r="I102" s="6">
         <f t="shared" si="9"/>
         <v>0.16812027190234224</v>
       </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A103" s="1">
+      <c r="J102" s="7">
+        <v>2.24E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A103" s="4">
         <v>42760</v>
       </c>
-      <c r="B103">
+      <c r="B103" s="2">
         <v>0.68826635899557498</v>
       </c>
-      <c r="C103">
+      <c r="C103" s="2">
         <f t="shared" si="6"/>
         <v>0.80391801642118299</v>
       </c>
-      <c r="D103">
+      <c r="D103" s="2">
         <f t="shared" si="7"/>
         <v>1.2535698303922116</v>
       </c>
-      <c r="E103">
+      <c r="E103" s="2">
         <f t="shared" si="8"/>
         <v>1.3087154928245541</v>
       </c>
-      <c r="F103">
+      <c r="F103" s="2">
         <f t="shared" si="9"/>
         <v>-0.49200364100442495</v>
       </c>
-      <c r="G103">
+      <c r="G103" s="2">
         <f t="shared" si="9"/>
         <v>-0.37635198357881694</v>
       </c>
-      <c r="H103">
+      <c r="H103" s="2">
         <f t="shared" si="9"/>
         <v>7.3299830392211662E-2</v>
       </c>
-      <c r="I103">
+      <c r="I103" s="2">
         <f t="shared" si="9"/>
         <v>0.1284454928245542</v>
       </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A104" s="1">
+      <c r="J103" s="3"/>
+      <c r="K103" s="2"/>
+      <c r="L103" s="2"/>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A104" s="4">
         <v>42767</v>
       </c>
-      <c r="B104">
+      <c r="B104" s="2">
         <v>0.50963181054723095</v>
       </c>
       <c r="C104" s="2">
@@ -4572,310 +4905,357 @@
         <f t="shared" si="9"/>
         <v>4.146431176558929E-2</v>
       </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A105" s="1">
+      <c r="J104" s="3"/>
+      <c r="K104" s="2"/>
+      <c r="L104" s="2"/>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A105" s="4">
         <v>42774</v>
       </c>
-      <c r="B105">
+      <c r="B105" s="2">
         <v>0.99679078205276395</v>
       </c>
-      <c r="C105">
+      <c r="C105" s="2">
         <f t="shared" si="6"/>
         <v>0.7532112962999975</v>
       </c>
-      <c r="D105">
+      <c r="D105" s="2">
         <f t="shared" si="7"/>
         <v>0.77856465636059013</v>
       </c>
-      <c r="E105">
+      <c r="E105" s="2">
         <f t="shared" si="8"/>
         <v>1.2464439476542604</v>
       </c>
-      <c r="F105">
+      <c r="F105" s="2">
         <f t="shared" si="9"/>
         <v>-0.18347921794723598</v>
       </c>
-      <c r="G105">
+      <c r="G105" s="2">
         <f t="shared" si="9"/>
         <v>-0.42705870370000243</v>
       </c>
-      <c r="H105">
+      <c r="H105" s="2">
         <f t="shared" si="9"/>
         <v>-0.4017053436394098</v>
       </c>
-      <c r="I105">
+      <c r="I105" s="2">
         <f t="shared" si="9"/>
         <v>6.6173947654260434E-2</v>
       </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A106" s="1">
+      <c r="J105" s="3"/>
+      <c r="K105" s="2"/>
+      <c r="L105" s="2"/>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A106" s="4">
         <v>42781</v>
       </c>
-      <c r="B106">
+      <c r="B106" s="2">
         <v>2.39042031271706</v>
       </c>
-      <c r="C106">
+      <c r="C106" s="2">
         <f t="shared" si="6"/>
         <v>1.6936055473849119</v>
       </c>
-      <c r="D106">
+      <c r="D106" s="2">
         <f t="shared" si="7"/>
         <v>1.1462773160781574</v>
       </c>
-      <c r="E106">
+      <c r="E106" s="2">
         <f t="shared" si="8"/>
         <v>1.3555244737786152</v>
       </c>
-      <c r="F106">
+      <c r="F106" s="2">
         <f t="shared" si="9"/>
         <v>1.2101503127170601</v>
       </c>
-      <c r="G106">
+      <c r="G106" s="2">
         <f t="shared" si="9"/>
         <v>0.51333554738491194</v>
       </c>
-      <c r="H106">
+      <c r="H106" s="2">
         <f t="shared" si="9"/>
         <v>-3.3992683921842515E-2</v>
       </c>
-      <c r="I106">
+      <c r="I106" s="2">
         <f t="shared" si="9"/>
         <v>0.17525447377861525</v>
       </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A107" s="1">
+      <c r="J106" s="3"/>
+      <c r="K106" s="2"/>
+      <c r="L106" s="2"/>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A107" s="4">
         <v>42788</v>
       </c>
-      <c r="B107">
+      <c r="B107" s="2">
         <v>2.3569336617182999</v>
       </c>
-      <c r="C107">
+      <c r="C107" s="2">
         <f t="shared" si="6"/>
         <v>2.3736769872176797</v>
       </c>
-      <c r="D107">
+      <c r="D107" s="2">
         <f t="shared" si="7"/>
         <v>1.5634441417588387</v>
       </c>
-      <c r="E107">
+      <c r="E107" s="2">
         <f t="shared" si="8"/>
         <v>1.408506986075525</v>
       </c>
-      <c r="F107">
+      <c r="F107" s="2">
         <f t="shared" si="9"/>
         <v>1.1766636617182999</v>
       </c>
-      <c r="G107">
+      <c r="G107" s="2">
         <f t="shared" si="9"/>
         <v>1.1934069872176798</v>
       </c>
-      <c r="H107">
+      <c r="H107" s="2">
         <f t="shared" si="9"/>
         <v>0.38317414175883879</v>
       </c>
-      <c r="I107">
+      <c r="I107" s="2">
         <f t="shared" si="9"/>
         <v>0.22823698607552512</v>
       </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A108" s="1">
+      <c r="J107" s="3"/>
+      <c r="K107" s="2"/>
+      <c r="L107" s="2"/>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A108" s="4">
         <v>42795</v>
       </c>
-      <c r="B108">
+      <c r="B108" s="2">
         <v>0.95027314592908996</v>
       </c>
-      <c r="C108">
+      <c r="C108" s="2">
         <f t="shared" si="6"/>
         <v>1.6536034038236949</v>
       </c>
-      <c r="D108">
+      <c r="D108" s="2">
         <f t="shared" si="7"/>
         <v>1.6736044756043036</v>
       </c>
-      <c r="E108">
+      <c r="E108" s="2">
         <f t="shared" si="8"/>
         <v>1.3391985517847675</v>
       </c>
-      <c r="F108">
+      <c r="F108" s="2">
         <f t="shared" si="9"/>
         <v>-0.22999685407090997</v>
       </c>
-      <c r="G108">
+      <c r="G108" s="2">
         <f t="shared" si="9"/>
         <v>0.47333340382369493</v>
       </c>
-      <c r="H108">
+      <c r="H108" s="2">
         <f t="shared" si="9"/>
         <v>0.49333447560430366</v>
       </c>
-      <c r="I108">
+      <c r="I108" s="2">
         <f t="shared" si="9"/>
         <v>0.15892855178476761</v>
       </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A109" s="1">
+      <c r="J108" s="3"/>
+      <c r="K108" s="2"/>
+      <c r="L108" s="2"/>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A109" s="4">
         <v>42802</v>
       </c>
-      <c r="B109">
+      <c r="B109" s="2">
         <v>-0.134216606977419</v>
       </c>
-      <c r="C109">
+      <c r="C109" s="2">
         <f t="shared" si="6"/>
         <v>0.40802826947583548</v>
       </c>
-      <c r="D109">
+      <c r="D109" s="2">
         <f t="shared" si="7"/>
         <v>1.3908526283467577</v>
       </c>
-      <c r="E109">
+      <c r="E109" s="2">
         <f t="shared" si="8"/>
         <v>1.0847086423536738</v>
       </c>
-      <c r="F109">
+      <c r="F109" s="2">
         <f t="shared" si="9"/>
         <v>-1.314486606977419</v>
       </c>
-      <c r="G109">
+      <c r="G109" s="2">
         <f t="shared" si="9"/>
         <v>-0.77224173052416445</v>
       </c>
-      <c r="H109">
+      <c r="H109" s="2">
         <f t="shared" si="9"/>
         <v>0.21058262834675778</v>
       </c>
-      <c r="I109">
+      <c r="I109" s="2">
         <f t="shared" si="9"/>
         <v>-9.5561357646326117E-2</v>
       </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A110" s="1">
+      <c r="J109" s="3"/>
+      <c r="K109" s="2"/>
+      <c r="L109" s="2"/>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A110" s="4">
         <v>42809</v>
       </c>
-      <c r="B110">
+      <c r="B110" s="2">
         <v>1.5665762714209699</v>
       </c>
-      <c r="C110">
+      <c r="C110" s="2">
         <f t="shared" si="6"/>
         <v>0.71617983222177539</v>
       </c>
-      <c r="D110">
+      <c r="D110" s="2">
         <f t="shared" si="7"/>
         <v>1.1848916180227351</v>
       </c>
-      <c r="E110">
+      <c r="E110" s="2">
         <f t="shared" si="8"/>
         <v>1.1655844670504463</v>
       </c>
-      <c r="F110">
+      <c r="F110" s="2">
         <f t="shared" si="9"/>
         <v>0.38630627142096996</v>
       </c>
-      <c r="G110">
+      <c r="G110" s="2">
         <f t="shared" si="9"/>
         <v>-0.46409016777822454</v>
       </c>
-      <c r="H110">
+      <c r="H110" s="2">
         <f t="shared" si="9"/>
         <v>4.6216180227351966E-3</v>
       </c>
-      <c r="I110">
+      <c r="I110" s="2">
         <f t="shared" si="9"/>
         <v>-1.4685532949553659E-2</v>
       </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A111" s="1">
+      <c r="J110" s="3"/>
+      <c r="K110" s="2"/>
+      <c r="L110" s="2"/>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A111" s="4">
         <v>42816</v>
       </c>
-      <c r="B111">
+      <c r="B111" s="2">
         <v>1.2807788901124999</v>
       </c>
-      <c r="C111">
+      <c r="C111" s="2">
         <f t="shared" si="6"/>
         <v>1.4236775807667348</v>
       </c>
-      <c r="D111">
+      <c r="D111" s="2">
         <f t="shared" si="7"/>
         <v>0.91585292512128524</v>
       </c>
-      <c r="E111">
+      <c r="E111" s="2">
         <f t="shared" si="8"/>
         <v>1.2396485334400622</v>
       </c>
-      <c r="F111">
+      <c r="F111" s="2">
         <f t="shared" si="9"/>
         <v>0.10050889011249997</v>
       </c>
-      <c r="G111">
+      <c r="G111" s="2">
         <f t="shared" si="9"/>
         <v>0.24340758076673485</v>
       </c>
-      <c r="H111">
+      <c r="H111" s="2">
         <f t="shared" si="9"/>
         <v>-0.26441707487871469</v>
       </c>
-      <c r="I111">
+      <c r="I111" s="2">
         <f t="shared" si="9"/>
         <v>5.9378533440062276E-2</v>
       </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A112" s="1">
+      <c r="J111" s="3"/>
+      <c r="K111" s="2"/>
+      <c r="L111" s="2"/>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A112" s="4">
         <v>42823</v>
       </c>
-      <c r="B112">
+      <c r="B112" s="2">
         <v>1.14297596061264</v>
       </c>
-      <c r="C112">
+      <c r="C112" s="2">
         <f t="shared" si="6"/>
         <v>1.2118774253625699</v>
       </c>
-      <c r="D112">
+      <c r="D112" s="2">
         <f t="shared" si="7"/>
         <v>0.96402862879217266</v>
       </c>
-      <c r="E112">
+      <c r="E112" s="2">
         <f t="shared" si="8"/>
         <v>1.318816552198238</v>
       </c>
-      <c r="F112">
+      <c r="F112" s="2">
         <f t="shared" si="9"/>
         <v>-3.7294039387359978E-2</v>
       </c>
-      <c r="G112">
+      <c r="G112" s="2">
         <f t="shared" si="9"/>
         <v>3.1607425362569996E-2</v>
       </c>
-      <c r="H112">
+      <c r="H112" s="2">
         <f t="shared" si="9"/>
         <v>-0.21624137120782727</v>
       </c>
-      <c r="I112">
+      <c r="I112" s="2">
         <f t="shared" si="9"/>
         <v>0.13854655219823808</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A113" s="1">
+      <c r="J112" s="3"/>
+      <c r="K112" s="2"/>
+      <c r="L112" s="2"/>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A113" s="4">
         <v>42830</v>
       </c>
-      <c r="B113">
+      <c r="B113" s="2">
         <v>7.0036592990195295E-2</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A114" s="1">
+      <c r="C113" s="2"/>
+      <c r="D113" s="2"/>
+      <c r="E113" s="2"/>
+      <c r="F113" s="2"/>
+      <c r="G113" s="2"/>
+      <c r="H113" s="2"/>
+      <c r="I113" s="2"/>
+      <c r="J113" s="3"/>
+      <c r="K113" s="2"/>
+      <c r="L113" s="2"/>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A114" s="4">
         <v>42837</v>
       </c>
-      <c r="B114">
+      <c r="B114" s="2">
         <v>2.6360355225319099</v>
       </c>
+      <c r="C114" s="2"/>
+      <c r="D114" s="2"/>
+      <c r="E114" s="2"/>
+      <c r="F114" s="2"/>
+      <c r="G114" s="2"/>
+      <c r="H114" s="2"/>
+      <c r="I114" s="2"/>
+      <c r="J114" s="3"/>
+      <c r="K114" s="2"/>
+      <c r="L114" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
